--- a/po forecast comparison/B08BR1XDX5_sales_po_comparison.xlsx
+++ b/po forecast comparison/B08BR1XDX5_sales_po_comparison.xlsx
@@ -7,7 +7,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales vs PO" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Weekly Growth" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Volume Insights" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Prediction Info" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C101"/>
+  <dimension ref="A1:D105"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -450,1107 +453,1601 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>Order Week</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>PO_Requested_Qty</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
+        <v>44927</v>
+      </c>
+      <c r="B2" t="n">
+        <v>26</v>
+      </c>
+      <c r="C2" s="2" t="n">
         <v>44921</v>
       </c>
-      <c r="B2" t="n">
-        <v>29</v>
-      </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>44935</v>
+        <v>44927</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2" t="n">
+        <v>44921</v>
+      </c>
+      <c r="D3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>44942</v>
+        <v>44941</v>
       </c>
       <c r="B4" t="n">
-        <v>4</v>
-      </c>
-      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" s="2" t="n">
+        <v>44935</v>
+      </c>
+      <c r="D4" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>44949</v>
+        <v>44948</v>
       </c>
       <c r="B5" t="n">
-        <v>78</v>
-      </c>
-      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" s="2" t="n">
+        <v>44942</v>
+      </c>
+      <c r="D5" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>44956</v>
+        <v>44948</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
-      </c>
-      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" s="2" t="n">
+        <v>44942</v>
+      </c>
+      <c r="D6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>44977</v>
+        <v>44955</v>
       </c>
       <c r="B7" t="n">
-        <v>40</v>
-      </c>
-      <c r="C7" t="n">
+        <v>77</v>
+      </c>
+      <c r="C7" s="2" t="n">
+        <v>44949</v>
+      </c>
+      <c r="D7" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>44984</v>
+        <v>44955</v>
       </c>
       <c r="B8" t="n">
-        <v>30</v>
-      </c>
-      <c r="C8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" s="2" t="n">
+        <v>44949</v>
+      </c>
+      <c r="D8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>44991</v>
+        <v>44962</v>
       </c>
       <c r="B9" t="n">
-        <v>22</v>
-      </c>
-      <c r="C9" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" s="2" t="n">
+        <v>44956</v>
+      </c>
+      <c r="D9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>44998</v>
+        <v>44962</v>
       </c>
       <c r="B10" t="n">
-        <v>23</v>
-      </c>
-      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" s="2" t="n">
+        <v>44956</v>
+      </c>
+      <c r="D10" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45005</v>
+        <v>44983</v>
       </c>
       <c r="B11" t="n">
-        <v>29</v>
-      </c>
-      <c r="C11" t="n">
+        <v>40</v>
+      </c>
+      <c r="C11" s="2" t="n">
+        <v>44977</v>
+      </c>
+      <c r="D11" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45012</v>
+        <v>44990</v>
       </c>
       <c r="B12" t="n">
-        <v>46</v>
-      </c>
-      <c r="C12" t="n">
+        <v>30</v>
+      </c>
+      <c r="C12" s="2" t="n">
+        <v>44984</v>
+      </c>
+      <c r="D12" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45019</v>
+        <v>44997</v>
       </c>
       <c r="B13" t="n">
-        <v>25</v>
-      </c>
-      <c r="C13" t="n">
+        <v>22</v>
+      </c>
+      <c r="C13" s="2" t="n">
+        <v>44991</v>
+      </c>
+      <c r="D13" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45026</v>
+        <v>45004</v>
       </c>
       <c r="B14" t="n">
-        <v>46</v>
-      </c>
-      <c r="C14" t="n">
+        <v>23</v>
+      </c>
+      <c r="C14" s="2" t="n">
+        <v>44998</v>
+      </c>
+      <c r="D14" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45033</v>
+        <v>45011</v>
       </c>
       <c r="B15" t="n">
-        <v>31</v>
-      </c>
-      <c r="C15" t="n">
+        <v>29</v>
+      </c>
+      <c r="C15" s="2" t="n">
+        <v>45005</v>
+      </c>
+      <c r="D15" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45040</v>
+        <v>45018</v>
       </c>
       <c r="B16" t="n">
-        <v>36</v>
-      </c>
-      <c r="C16" t="n">
+        <v>46</v>
+      </c>
+      <c r="C16" s="2" t="n">
+        <v>45012</v>
+      </c>
+      <c r="D16" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45047</v>
+        <v>45025</v>
       </c>
       <c r="B17" t="n">
-        <v>60</v>
-      </c>
-      <c r="C17" t="n">
+        <v>25</v>
+      </c>
+      <c r="C17" s="2" t="n">
+        <v>45019</v>
+      </c>
+      <c r="D17" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45054</v>
+        <v>45032</v>
       </c>
       <c r="B18" t="n">
-        <v>50</v>
-      </c>
-      <c r="C18" t="n">
+        <v>46</v>
+      </c>
+      <c r="C18" s="2" t="n">
+        <v>45026</v>
+      </c>
+      <c r="D18" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45061</v>
+        <v>45039</v>
       </c>
       <c r="B19" t="n">
-        <v>49</v>
-      </c>
-      <c r="C19" t="n">
+        <v>31</v>
+      </c>
+      <c r="C19" s="2" t="n">
+        <v>45033</v>
+      </c>
+      <c r="D19" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45068</v>
+        <v>45046</v>
       </c>
       <c r="B20" t="n">
-        <v>52</v>
-      </c>
-      <c r="C20" t="n">
+        <v>36</v>
+      </c>
+      <c r="C20" s="2" t="n">
+        <v>45040</v>
+      </c>
+      <c r="D20" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45075</v>
+        <v>45053</v>
       </c>
       <c r="B21" t="n">
-        <v>110</v>
-      </c>
-      <c r="C21" t="n">
+        <v>60</v>
+      </c>
+      <c r="C21" s="2" t="n">
+        <v>45047</v>
+      </c>
+      <c r="D21" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45082</v>
+        <v>45060</v>
       </c>
       <c r="B22" t="n">
-        <v>77</v>
-      </c>
-      <c r="C22" t="n">
+        <v>50</v>
+      </c>
+      <c r="C22" s="2" t="n">
+        <v>45054</v>
+      </c>
+      <c r="D22" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45089</v>
+        <v>45067</v>
       </c>
       <c r="B23" t="n">
-        <v>41</v>
-      </c>
-      <c r="C23" t="n">
+        <v>49</v>
+      </c>
+      <c r="C23" s="2" t="n">
+        <v>45061</v>
+      </c>
+      <c r="D23" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45096</v>
+        <v>45074</v>
       </c>
       <c r="B24" t="n">
-        <v>51</v>
-      </c>
-      <c r="C24" t="n">
+        <v>52</v>
+      </c>
+      <c r="C24" s="2" t="n">
+        <v>45068</v>
+      </c>
+      <c r="D24" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45103</v>
+        <v>45081</v>
       </c>
       <c r="B25" t="n">
-        <v>150</v>
-      </c>
-      <c r="C25" t="n">
+        <v>110</v>
+      </c>
+      <c r="C25" s="2" t="n">
+        <v>45075</v>
+      </c>
+      <c r="D25" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45110</v>
+        <v>45088</v>
       </c>
       <c r="B26" t="n">
-        <v>56</v>
-      </c>
-      <c r="C26" t="n">
+        <v>77</v>
+      </c>
+      <c r="C26" s="2" t="n">
+        <v>45082</v>
+      </c>
+      <c r="D26" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45117</v>
+        <v>45095</v>
       </c>
       <c r="B27" t="n">
-        <v>81</v>
-      </c>
-      <c r="C27" t="n">
+        <v>41</v>
+      </c>
+      <c r="C27" s="2" t="n">
+        <v>45089</v>
+      </c>
+      <c r="D27" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45124</v>
+        <v>45102</v>
       </c>
       <c r="B28" t="n">
-        <v>93</v>
-      </c>
-      <c r="C28" t="n">
+        <v>51</v>
+      </c>
+      <c r="C28" s="2" t="n">
+        <v>45096</v>
+      </c>
+      <c r="D28" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45131</v>
+        <v>45109</v>
       </c>
       <c r="B29" t="n">
-        <v>84</v>
-      </c>
-      <c r="C29" t="n">
+        <v>150</v>
+      </c>
+      <c r="C29" s="2" t="n">
+        <v>45103</v>
+      </c>
+      <c r="D29" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45138</v>
+        <v>45116</v>
       </c>
       <c r="B30" t="n">
-        <v>61</v>
-      </c>
-      <c r="C30" t="n">
+        <v>56</v>
+      </c>
+      <c r="C30" s="2" t="n">
+        <v>45110</v>
+      </c>
+      <c r="D30" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45145</v>
+        <v>45123</v>
       </c>
       <c r="B31" t="n">
-        <v>61</v>
-      </c>
-      <c r="C31" t="n">
+        <v>81</v>
+      </c>
+      <c r="C31" s="2" t="n">
+        <v>45117</v>
+      </c>
+      <c r="D31" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45152</v>
+        <v>45130</v>
       </c>
       <c r="B32" t="n">
-        <v>50</v>
-      </c>
-      <c r="C32" t="n">
+        <v>93</v>
+      </c>
+      <c r="C32" s="2" t="n">
+        <v>45124</v>
+      </c>
+      <c r="D32" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45159</v>
+        <v>45137</v>
       </c>
       <c r="B33" t="n">
-        <v>85</v>
-      </c>
-      <c r="C33" t="n">
+        <v>84</v>
+      </c>
+      <c r="C33" s="2" t="n">
+        <v>45131</v>
+      </c>
+      <c r="D33" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>45166</v>
+        <v>45144</v>
       </c>
       <c r="B34" t="n">
-        <v>63</v>
-      </c>
-      <c r="C34" t="n">
+        <v>61</v>
+      </c>
+      <c r="C34" s="2" t="n">
+        <v>45138</v>
+      </c>
+      <c r="D34" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>45173</v>
+        <v>45151</v>
       </c>
       <c r="B35" t="n">
-        <v>52</v>
-      </c>
-      <c r="C35" t="n">
+        <v>61</v>
+      </c>
+      <c r="C35" s="2" t="n">
+        <v>45145</v>
+      </c>
+      <c r="D35" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>45180</v>
+        <v>45158</v>
       </c>
       <c r="B36" t="n">
-        <v>57</v>
-      </c>
-      <c r="C36" t="n">
+        <v>50</v>
+      </c>
+      <c r="C36" s="2" t="n">
+        <v>45152</v>
+      </c>
+      <c r="D36" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>45187</v>
+        <v>45165</v>
       </c>
       <c r="B37" t="n">
-        <v>81</v>
-      </c>
-      <c r="C37" t="n">
+        <v>85</v>
+      </c>
+      <c r="C37" s="2" t="n">
+        <v>45159</v>
+      </c>
+      <c r="D37" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>45194</v>
+        <v>45172</v>
       </c>
       <c r="B38" t="n">
-        <v>66</v>
-      </c>
-      <c r="C38" t="n">
+        <v>63</v>
+      </c>
+      <c r="C38" s="2" t="n">
+        <v>45166</v>
+      </c>
+      <c r="D38" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>45201</v>
+        <v>45179</v>
       </c>
       <c r="B39" t="n">
-        <v>64</v>
-      </c>
-      <c r="C39" t="n">
+        <v>52</v>
+      </c>
+      <c r="C39" s="2" t="n">
+        <v>45173</v>
+      </c>
+      <c r="D39" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>45208</v>
+        <v>45186</v>
       </c>
       <c r="B40" t="n">
-        <v>46</v>
-      </c>
-      <c r="C40" t="n">
+        <v>57</v>
+      </c>
+      <c r="C40" s="2" t="n">
+        <v>45180</v>
+      </c>
+      <c r="D40" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>45215</v>
+        <v>45193</v>
       </c>
       <c r="B41" t="n">
-        <v>148</v>
-      </c>
-      <c r="C41" t="n">
+        <v>81</v>
+      </c>
+      <c r="C41" s="2" t="n">
+        <v>45187</v>
+      </c>
+      <c r="D41" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>45222</v>
+        <v>45200</v>
       </c>
       <c r="B42" t="n">
-        <v>120</v>
-      </c>
-      <c r="C42" t="n">
+        <v>66</v>
+      </c>
+      <c r="C42" s="2" t="n">
+        <v>45194</v>
+      </c>
+      <c r="D42" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>45229</v>
+        <v>45207</v>
       </c>
       <c r="B43" t="n">
-        <v>68</v>
-      </c>
-      <c r="C43" t="n">
+        <v>64</v>
+      </c>
+      <c r="C43" s="2" t="n">
+        <v>45201</v>
+      </c>
+      <c r="D43" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>45236</v>
+        <v>45214</v>
       </c>
       <c r="B44" t="n">
-        <v>32</v>
-      </c>
-      <c r="C44" t="n">
+        <v>46</v>
+      </c>
+      <c r="C44" s="2" t="n">
+        <v>45208</v>
+      </c>
+      <c r="D44" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>45243</v>
+        <v>45221</v>
       </c>
       <c r="B45" t="n">
-        <v>19</v>
-      </c>
-      <c r="C45" t="n">
+        <v>148</v>
+      </c>
+      <c r="C45" s="2" t="n">
+        <v>45215</v>
+      </c>
+      <c r="D45" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>45250</v>
+        <v>45228</v>
       </c>
       <c r="B46" t="n">
-        <v>3</v>
-      </c>
-      <c r="C46" t="n">
+        <v>120</v>
+      </c>
+      <c r="C46" s="2" t="n">
+        <v>45222</v>
+      </c>
+      <c r="D46" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>45257</v>
+        <v>45235</v>
       </c>
       <c r="B47" t="n">
-        <v>1</v>
-      </c>
-      <c r="C47" t="n">
+        <v>68</v>
+      </c>
+      <c r="C47" s="2" t="n">
+        <v>45229</v>
+      </c>
+      <c r="D47" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>45264</v>
+        <v>45242</v>
       </c>
       <c r="B48" t="n">
-        <v>3</v>
-      </c>
-      <c r="C48" t="n">
+        <v>32</v>
+      </c>
+      <c r="C48" s="2" t="n">
+        <v>45236</v>
+      </c>
+      <c r="D48" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>45271</v>
+        <v>45249</v>
       </c>
       <c r="B49" t="n">
-        <v>2</v>
-      </c>
-      <c r="C49" t="n">
+        <v>19</v>
+      </c>
+      <c r="C49" s="2" t="n">
+        <v>45243</v>
+      </c>
+      <c r="D49" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>45285</v>
+        <v>45256</v>
       </c>
       <c r="B50" t="n">
-        <v>0</v>
-      </c>
-      <c r="C50" t="n">
+        <v>3</v>
+      </c>
+      <c r="C50" s="2" t="n">
+        <v>45250</v>
+      </c>
+      <c r="D50" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>45292</v>
+        <v>45263</v>
       </c>
       <c r="B51" t="n">
         <v>1</v>
       </c>
-      <c r="C51" t="n">
+      <c r="C51" s="2" t="n">
+        <v>45257</v>
+      </c>
+      <c r="D51" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>45299</v>
+        <v>45270</v>
       </c>
       <c r="B52" t="n">
-        <v>2</v>
-      </c>
-      <c r="C52" t="n">
+        <v>3</v>
+      </c>
+      <c r="C52" s="2" t="n">
+        <v>45264</v>
+      </c>
+      <c r="D52" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>45306</v>
+        <v>45277</v>
       </c>
       <c r="B53" t="n">
-        <v>1</v>
-      </c>
-      <c r="C53" t="n">
+        <v>2</v>
+      </c>
+      <c r="C53" s="2" t="n">
+        <v>45271</v>
+      </c>
+      <c r="D53" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>45313</v>
+        <v>45291</v>
       </c>
       <c r="B54" t="n">
-        <v>3</v>
-      </c>
-      <c r="C54" t="n">
+        <v>0</v>
+      </c>
+      <c r="C54" s="2" t="n">
+        <v>45285</v>
+      </c>
+      <c r="D54" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>45320</v>
+        <v>45298</v>
       </c>
       <c r="B55" t="n">
-        <v>0</v>
-      </c>
-      <c r="C55" t="n">
+        <v>1</v>
+      </c>
+      <c r="C55" s="2" t="n">
+        <v>45292</v>
+      </c>
+      <c r="D55" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>45327</v>
+        <v>45305</v>
       </c>
       <c r="B56" t="n">
-        <v>0</v>
-      </c>
-      <c r="C56" t="n">
+        <v>2</v>
+      </c>
+      <c r="C56" s="2" t="n">
+        <v>45299</v>
+      </c>
+      <c r="D56" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>45334</v>
+        <v>45312</v>
       </c>
       <c r="B57" t="n">
-        <v>0</v>
-      </c>
-      <c r="C57" t="n">
+        <v>1</v>
+      </c>
+      <c r="C57" s="2" t="n">
+        <v>45306</v>
+      </c>
+      <c r="D57" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>45341</v>
+        <v>45319</v>
       </c>
       <c r="B58" t="n">
-        <v>0</v>
-      </c>
-      <c r="C58" t="n">
+        <v>3</v>
+      </c>
+      <c r="C58" s="2" t="n">
+        <v>45313</v>
+      </c>
+      <c r="D58" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>45348</v>
+        <v>45326</v>
       </c>
       <c r="B59" t="n">
-        <v>1</v>
-      </c>
-      <c r="C59" t="n">
+        <v>0</v>
+      </c>
+      <c r="C59" s="2" t="n">
+        <v>45320</v>
+      </c>
+      <c r="D59" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>45355</v>
+        <v>45333</v>
       </c>
       <c r="B60" t="n">
-        <v>1</v>
-      </c>
-      <c r="C60" t="n">
+        <v>0</v>
+      </c>
+      <c r="C60" s="2" t="n">
+        <v>45327</v>
+      </c>
+      <c r="D60" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>45362</v>
+        <v>45340</v>
       </c>
       <c r="B61" t="n">
         <v>0</v>
       </c>
-      <c r="C61" t="n">
-        <v>30</v>
+      <c r="C61" s="2" t="n">
+        <v>45334</v>
+      </c>
+      <c r="D61" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>45369</v>
+        <v>45347</v>
       </c>
       <c r="B62" t="n">
         <v>0</v>
       </c>
-      <c r="C62" t="n">
+      <c r="C62" s="2" t="n">
+        <v>45341</v>
+      </c>
+      <c r="D62" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>45376</v>
+        <v>45354</v>
       </c>
       <c r="B63" t="n">
-        <v>0</v>
-      </c>
-      <c r="C63" t="n">
+        <v>1</v>
+      </c>
+      <c r="C63" s="2" t="n">
+        <v>45348</v>
+      </c>
+      <c r="D63" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>45390</v>
+        <v>45361</v>
       </c>
       <c r="B64" t="n">
-        <v>0</v>
-      </c>
-      <c r="C64" t="n">
+        <v>1</v>
+      </c>
+      <c r="C64" s="2" t="n">
+        <v>45355</v>
+      </c>
+      <c r="D64" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>45397</v>
+        <v>45368</v>
       </c>
       <c r="B65" t="n">
         <v>0</v>
       </c>
-      <c r="C65" t="n">
+      <c r="C65" s="2" t="n">
+        <v>45362</v>
+      </c>
+      <c r="D65" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>45404</v>
+        <v>45375</v>
       </c>
       <c r="B66" t="n">
         <v>0</v>
       </c>
-      <c r="C66" t="n">
+      <c r="C66" s="2" t="n">
+        <v>45369</v>
+      </c>
+      <c r="D66" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>45411</v>
+        <v>45382</v>
       </c>
       <c r="B67" t="n">
         <v>0</v>
       </c>
-      <c r="C67" t="n">
+      <c r="C67" s="2" t="n">
+        <v>45376</v>
+      </c>
+      <c r="D67" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>45418</v>
+        <v>45396</v>
       </c>
       <c r="B68" t="n">
         <v>0</v>
       </c>
-      <c r="C68" t="n">
+      <c r="C68" s="2" t="n">
+        <v>45390</v>
+      </c>
+      <c r="D68" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>45425</v>
+        <v>45403</v>
       </c>
       <c r="B69" t="n">
         <v>0</v>
       </c>
-      <c r="C69" t="n">
+      <c r="C69" s="2" t="n">
+        <v>45397</v>
+      </c>
+      <c r="D69" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>45432</v>
+        <v>45410</v>
       </c>
       <c r="B70" t="n">
         <v>0</v>
       </c>
-      <c r="C70" t="n">
+      <c r="C70" s="2" t="n">
+        <v>45404</v>
+      </c>
+      <c r="D70" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>45439</v>
+        <v>45417</v>
       </c>
       <c r="B71" t="n">
         <v>0</v>
       </c>
-      <c r="C71" t="n">
+      <c r="C71" s="2" t="n">
+        <v>45411</v>
+      </c>
+      <c r="D71" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>45446</v>
+        <v>45424</v>
       </c>
       <c r="B72" t="n">
         <v>0</v>
       </c>
-      <c r="C72" t="n">
+      <c r="C72" s="2" t="n">
+        <v>45418</v>
+      </c>
+      <c r="D72" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>45453</v>
+        <v>45431</v>
       </c>
       <c r="B73" t="n">
         <v>0</v>
       </c>
-      <c r="C73" t="n">
+      <c r="C73" s="2" t="n">
+        <v>45425</v>
+      </c>
+      <c r="D73" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>45460</v>
+        <v>45438</v>
       </c>
       <c r="B74" t="n">
         <v>0</v>
       </c>
-      <c r="C74" t="n">
+      <c r="C74" s="2" t="n">
+        <v>45432</v>
+      </c>
+      <c r="D74" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>45467</v>
+        <v>45445</v>
       </c>
       <c r="B75" t="n">
         <v>0</v>
       </c>
-      <c r="C75" t="n">
+      <c r="C75" s="2" t="n">
+        <v>45439</v>
+      </c>
+      <c r="D75" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>45474</v>
+        <v>45452</v>
       </c>
       <c r="B76" t="n">
-        <v>2</v>
-      </c>
-      <c r="C76" t="n">
+        <v>0</v>
+      </c>
+      <c r="C76" s="2" t="n">
+        <v>45446</v>
+      </c>
+      <c r="D76" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>45481</v>
+        <v>45459</v>
       </c>
       <c r="B77" t="n">
-        <v>3</v>
-      </c>
-      <c r="C77" t="n">
+        <v>0</v>
+      </c>
+      <c r="C77" s="2" t="n">
+        <v>45453</v>
+      </c>
+      <c r="D77" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>45488</v>
+        <v>45466</v>
       </c>
       <c r="B78" t="n">
-        <v>1</v>
-      </c>
-      <c r="C78" t="n">
+        <v>0</v>
+      </c>
+      <c r="C78" s="2" t="n">
+        <v>45460</v>
+      </c>
+      <c r="D78" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>45495</v>
+        <v>45473</v>
       </c>
       <c r="B79" t="n">
-        <v>1</v>
-      </c>
-      <c r="C79" t="n">
+        <v>0</v>
+      </c>
+      <c r="C79" s="2" t="n">
+        <v>45467</v>
+      </c>
+      <c r="D79" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>45502</v>
+        <v>45480</v>
       </c>
       <c r="B80" t="n">
-        <v>0</v>
-      </c>
-      <c r="C80" t="n">
+        <v>2</v>
+      </c>
+      <c r="C80" s="2" t="n">
+        <v>45474</v>
+      </c>
+      <c r="D80" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>45509</v>
+        <v>45487</v>
       </c>
       <c r="B81" t="n">
-        <v>2</v>
-      </c>
-      <c r="C81" t="n">
+        <v>3</v>
+      </c>
+      <c r="C81" s="2" t="n">
+        <v>45481</v>
+      </c>
+      <c r="D81" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>45516</v>
+        <v>45494</v>
       </c>
       <c r="B82" t="n">
-        <v>0</v>
-      </c>
-      <c r="C82" t="n">
+        <v>1</v>
+      </c>
+      <c r="C82" s="2" t="n">
+        <v>45488</v>
+      </c>
+      <c r="D82" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>45523</v>
+        <v>45501</v>
       </c>
       <c r="B83" t="n">
         <v>1</v>
       </c>
-      <c r="C83" t="n">
+      <c r="C83" s="2" t="n">
+        <v>45495</v>
+      </c>
+      <c r="D83" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>45530</v>
+        <v>45508</v>
       </c>
       <c r="B84" t="n">
         <v>0</v>
       </c>
-      <c r="C84" t="n">
+      <c r="C84" s="2" t="n">
+        <v>45502</v>
+      </c>
+      <c r="D84" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>45537</v>
+        <v>45515</v>
       </c>
       <c r="B85" t="n">
-        <v>0</v>
-      </c>
-      <c r="C85" t="n">
+        <v>2</v>
+      </c>
+      <c r="C85" s="2" t="n">
+        <v>45509</v>
+      </c>
+      <c r="D85" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
-        <v>45544</v>
+        <v>45522</v>
       </c>
       <c r="B86" t="n">
         <v>0</v>
       </c>
-      <c r="C86" t="n">
+      <c r="C86" s="2" t="n">
+        <v>45516</v>
+      </c>
+      <c r="D86" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
-        <v>45551</v>
+        <v>45529</v>
       </c>
       <c r="B87" t="n">
-        <v>0</v>
-      </c>
-      <c r="C87" t="n">
+        <v>1</v>
+      </c>
+      <c r="C87" s="2" t="n">
+        <v>45523</v>
+      </c>
+      <c r="D87" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
-        <v>45558</v>
+        <v>45536</v>
       </c>
       <c r="B88" t="n">
         <v>0</v>
       </c>
-      <c r="C88" t="n">
+      <c r="C88" s="2" t="n">
+        <v>45530</v>
+      </c>
+      <c r="D88" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>45565</v>
+        <v>45543</v>
       </c>
       <c r="B89" t="n">
         <v>0</v>
       </c>
-      <c r="C89" t="n">
+      <c r="C89" s="2" t="n">
+        <v>45537</v>
+      </c>
+      <c r="D89" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>45572</v>
+        <v>45550</v>
       </c>
       <c r="B90" t="n">
         <v>0</v>
       </c>
-      <c r="C90" t="n">
+      <c r="C90" s="2" t="n">
+        <v>45544</v>
+      </c>
+      <c r="D90" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
-        <v>45579</v>
+        <v>45557</v>
       </c>
       <c r="B91" t="n">
         <v>0</v>
       </c>
-      <c r="C91" t="n">
+      <c r="C91" s="2" t="n">
+        <v>45551</v>
+      </c>
+      <c r="D91" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
-        <v>45586</v>
+        <v>45564</v>
       </c>
       <c r="B92" t="n">
         <v>0</v>
       </c>
-      <c r="C92" t="n">
+      <c r="C92" s="2" t="n">
+        <v>45558</v>
+      </c>
+      <c r="D92" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
-        <v>45593</v>
+        <v>45571</v>
       </c>
       <c r="B93" t="n">
         <v>0</v>
       </c>
-      <c r="C93" t="n">
+      <c r="C93" s="2" t="n">
+        <v>45565</v>
+      </c>
+      <c r="D93" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
-        <v>45600</v>
+        <v>45578</v>
       </c>
       <c r="B94" t="n">
         <v>0</v>
       </c>
-      <c r="C94" t="n">
+      <c r="C94" s="2" t="n">
+        <v>45572</v>
+      </c>
+      <c r="D94" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
-        <v>45607</v>
+        <v>45585</v>
       </c>
       <c r="B95" t="n">
         <v>0</v>
       </c>
-      <c r="C95" t="n">
+      <c r="C95" s="2" t="n">
+        <v>45579</v>
+      </c>
+      <c r="D95" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
-        <v>45614</v>
+        <v>45592</v>
       </c>
       <c r="B96" t="n">
         <v>0</v>
       </c>
-      <c r="C96" t="n">
+      <c r="C96" s="2" t="n">
+        <v>45586</v>
+      </c>
+      <c r="D96" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
-        <v>45621</v>
+        <v>45599</v>
       </c>
       <c r="B97" t="n">
         <v>0</v>
       </c>
-      <c r="C97" t="n">
+      <c r="C97" s="2" t="n">
+        <v>45593</v>
+      </c>
+      <c r="D97" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
-        <v>45628</v>
+        <v>45606</v>
       </c>
       <c r="B98" t="n">
         <v>0</v>
       </c>
-      <c r="C98" t="n">
+      <c r="C98" s="2" t="n">
+        <v>45600</v>
+      </c>
+      <c r="D98" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
-        <v>45635</v>
+        <v>45613</v>
       </c>
       <c r="B99" t="n">
         <v>0</v>
       </c>
-      <c r="C99" t="n">
+      <c r="C99" s="2" t="n">
+        <v>45607</v>
+      </c>
+      <c r="D99" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
-        <v>45642</v>
+        <v>45620</v>
       </c>
       <c r="B100" t="n">
         <v>0</v>
       </c>
-      <c r="C100" t="n">
+      <c r="C100" s="2" t="n">
+        <v>45614</v>
+      </c>
+      <c r="D100" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
+        <v>45627</v>
+      </c>
+      <c r="B101" t="n">
+        <v>0</v>
+      </c>
+      <c r="C101" s="2" t="n">
+        <v>45621</v>
+      </c>
+      <c r="D101" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>45634</v>
+      </c>
+      <c r="B102" t="n">
+        <v>0</v>
+      </c>
+      <c r="C102" s="2" t="n">
+        <v>45628</v>
+      </c>
+      <c r="D102" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>45641</v>
+      </c>
+      <c r="B103" t="n">
+        <v>0</v>
+      </c>
+      <c r="C103" s="2" t="n">
+        <v>45635</v>
+      </c>
+      <c r="D103" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>45648</v>
+      </c>
+      <c r="B104" t="n">
+        <v>0</v>
+      </c>
+      <c r="C104" s="2" t="n">
+        <v>45642</v>
+      </c>
+      <c r="D104" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>45655</v>
+      </c>
+      <c r="B105" t="n">
+        <v>0</v>
+      </c>
+      <c r="C105" s="2" t="n">
         <v>45649</v>
       </c>
-      <c r="B101" t="n">
-        <v>0</v>
-      </c>
-      <c r="C101" t="n">
+      <c r="D105" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PO_Requested_Qty</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Growth%</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>45362</v>
+      </c>
+      <c r="B2" t="n">
+        <v>30</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Total_PO_Quantity</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Average_PO_Quantity</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Max_PO_Quantity</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Min_PO_Quantity</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B2" t="n">
+        <v>30</v>
+      </c>
+      <c r="C2" t="n">
+        <v>30</v>
+      </c>
+      <c r="D2" t="n">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Predicted_Next_Week_PO_Quantity</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
         <v>0</v>
       </c>
     </row>

--- a/po forecast comparison/B08BR1XDX5_sales_po_comparison.xlsx
+++ b/po forecast comparison/B08BR1XDX5_sales_po_comparison.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D105"/>
+  <dimension ref="A1:C101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,1468 +453,1107 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Order Week</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
           <t>PO_Requested_Qty</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>44927</v>
+        <v>44927.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>26</v>
-      </c>
-      <c r="C2" s="2" t="n">
-        <v>44921</v>
-      </c>
-      <c r="D2" t="n">
+        <v>29</v>
+      </c>
+      <c r="C2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>44927</v>
+        <v>44941.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
-      </c>
-      <c r="C3" s="2" t="n">
-        <v>44921</v>
-      </c>
-      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>44941</v>
+        <v>44948.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
-      </c>
-      <c r="C4" s="2" t="n">
-        <v>44935</v>
-      </c>
-      <c r="D4" t="n">
+        <v>4</v>
+      </c>
+      <c r="C4" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>44948</v>
+        <v>44955.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
-      </c>
-      <c r="C5" s="2" t="n">
-        <v>44942</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
+        <v>78</v>
+      </c>
+      <c r="C5" t="n">
+        <v>300</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>44948</v>
+        <v>44962.99999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>4</v>
-      </c>
-      <c r="C6" s="2" t="n">
-        <v>44942</v>
-      </c>
-      <c r="D6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>44955</v>
+        <v>44983.99999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>77</v>
-      </c>
-      <c r="C7" s="2" t="n">
-        <v>44949</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0</v>
+        <v>40</v>
+      </c>
+      <c r="C7" t="n">
+        <v>80</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>44955</v>
+        <v>44990.99999999999</v>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
-      </c>
-      <c r="C8" s="2" t="n">
-        <v>44949</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0</v>
+        <v>30</v>
+      </c>
+      <c r="C8" t="n">
+        <v>460</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>44962</v>
+        <v>44997.99999999999</v>
       </c>
       <c r="B9" t="n">
-        <v>1</v>
-      </c>
-      <c r="C9" s="2" t="n">
-        <v>44956</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0</v>
+        <v>22</v>
+      </c>
+      <c r="C9" t="n">
+        <v>60</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>44962</v>
+        <v>45004.99999999999</v>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
-      </c>
-      <c r="C10" s="2" t="n">
-        <v>44956</v>
-      </c>
-      <c r="D10" t="n">
+        <v>23</v>
+      </c>
+      <c r="C10" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>44983</v>
+        <v>45011.99999999999</v>
       </c>
       <c r="B11" t="n">
-        <v>40</v>
-      </c>
-      <c r="C11" s="2" t="n">
-        <v>44977</v>
-      </c>
-      <c r="D11" t="n">
+        <v>29</v>
+      </c>
+      <c r="C11" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>44990</v>
+        <v>45018.99999999999</v>
       </c>
       <c r="B12" t="n">
-        <v>30</v>
-      </c>
-      <c r="C12" s="2" t="n">
-        <v>44984</v>
-      </c>
-      <c r="D12" t="n">
+        <v>46</v>
+      </c>
+      <c r="C12" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>44997</v>
+        <v>45025.99999999999</v>
       </c>
       <c r="B13" t="n">
-        <v>22</v>
-      </c>
-      <c r="C13" s="2" t="n">
-        <v>44991</v>
-      </c>
-      <c r="D13" t="n">
+        <v>25</v>
+      </c>
+      <c r="C13" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45004</v>
+        <v>45032.99999999999</v>
       </c>
       <c r="B14" t="n">
-        <v>23</v>
-      </c>
-      <c r="C14" s="2" t="n">
-        <v>44998</v>
-      </c>
-      <c r="D14" t="n">
+        <v>46</v>
+      </c>
+      <c r="C14" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45011</v>
+        <v>45039.99999999999</v>
       </c>
       <c r="B15" t="n">
-        <v>29</v>
-      </c>
-      <c r="C15" s="2" t="n">
-        <v>45005</v>
-      </c>
-      <c r="D15" t="n">
+        <v>31</v>
+      </c>
+      <c r="C15" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45018</v>
+        <v>45046.99999999999</v>
       </c>
       <c r="B16" t="n">
-        <v>46</v>
-      </c>
-      <c r="C16" s="2" t="n">
-        <v>45012</v>
-      </c>
-      <c r="D16" t="n">
+        <v>36</v>
+      </c>
+      <c r="C16" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45025</v>
+        <v>45053.99999999999</v>
       </c>
       <c r="B17" t="n">
-        <v>25</v>
-      </c>
-      <c r="C17" s="2" t="n">
-        <v>45019</v>
-      </c>
-      <c r="D17" t="n">
-        <v>0</v>
+        <v>60</v>
+      </c>
+      <c r="C17" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45032</v>
+        <v>45060.99999999999</v>
       </c>
       <c r="B18" t="n">
-        <v>46</v>
-      </c>
-      <c r="C18" s="2" t="n">
-        <v>45026</v>
-      </c>
-      <c r="D18" t="n">
-        <v>0</v>
+        <v>50</v>
+      </c>
+      <c r="C18" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45039</v>
+        <v>45067.99999999999</v>
       </c>
       <c r="B19" t="n">
-        <v>31</v>
-      </c>
-      <c r="C19" s="2" t="n">
-        <v>45033</v>
-      </c>
-      <c r="D19" t="n">
+        <v>49</v>
+      </c>
+      <c r="C19" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45046</v>
+        <v>45074.99999999999</v>
       </c>
       <c r="B20" t="n">
-        <v>36</v>
-      </c>
-      <c r="C20" s="2" t="n">
-        <v>45040</v>
-      </c>
-      <c r="D20" t="n">
+        <v>52</v>
+      </c>
+      <c r="C20" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45053</v>
+        <v>45081.99999999999</v>
       </c>
       <c r="B21" t="n">
-        <v>60</v>
-      </c>
-      <c r="C21" s="2" t="n">
-        <v>45047</v>
-      </c>
-      <c r="D21" t="n">
-        <v>0</v>
+        <v>110</v>
+      </c>
+      <c r="C21" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45060</v>
+        <v>45088.99999999999</v>
       </c>
       <c r="B22" t="n">
-        <v>50</v>
-      </c>
-      <c r="C22" s="2" t="n">
-        <v>45054</v>
-      </c>
-      <c r="D22" t="n">
-        <v>0</v>
+        <v>77</v>
+      </c>
+      <c r="C22" t="n">
+        <v>70</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45067</v>
+        <v>45095.99999999999</v>
       </c>
       <c r="B23" t="n">
-        <v>49</v>
-      </c>
-      <c r="C23" s="2" t="n">
-        <v>45061</v>
-      </c>
-      <c r="D23" t="n">
-        <v>0</v>
+        <v>41</v>
+      </c>
+      <c r="C23" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45074</v>
+        <v>45102.99999999999</v>
       </c>
       <c r="B24" t="n">
-        <v>52</v>
-      </c>
-      <c r="C24" s="2" t="n">
-        <v>45068</v>
-      </c>
-      <c r="D24" t="n">
-        <v>0</v>
+        <v>51</v>
+      </c>
+      <c r="C24" t="n">
+        <v>220</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45081</v>
+        <v>45109.99999999999</v>
       </c>
       <c r="B25" t="n">
-        <v>110</v>
-      </c>
-      <c r="C25" s="2" t="n">
-        <v>45075</v>
-      </c>
-      <c r="D25" t="n">
-        <v>0</v>
+        <v>150</v>
+      </c>
+      <c r="C25" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45088</v>
+        <v>45116.99999999999</v>
       </c>
       <c r="B26" t="n">
-        <v>77</v>
-      </c>
-      <c r="C26" s="2" t="n">
-        <v>45082</v>
-      </c>
-      <c r="D26" t="n">
-        <v>0</v>
+        <v>56</v>
+      </c>
+      <c r="C26" t="n">
+        <v>160</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45095</v>
+        <v>45123.99999999999</v>
       </c>
       <c r="B27" t="n">
-        <v>41</v>
-      </c>
-      <c r="C27" s="2" t="n">
-        <v>45089</v>
-      </c>
-      <c r="D27" t="n">
-        <v>0</v>
+        <v>81</v>
+      </c>
+      <c r="C27" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45102</v>
+        <v>45130.99999999999</v>
       </c>
       <c r="B28" t="n">
-        <v>51</v>
-      </c>
-      <c r="C28" s="2" t="n">
-        <v>45096</v>
-      </c>
-      <c r="D28" t="n">
-        <v>0</v>
+        <v>93</v>
+      </c>
+      <c r="C28" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45109</v>
+        <v>45137.99999999999</v>
       </c>
       <c r="B29" t="n">
-        <v>150</v>
-      </c>
-      <c r="C29" s="2" t="n">
-        <v>45103</v>
-      </c>
-      <c r="D29" t="n">
-        <v>0</v>
+        <v>84</v>
+      </c>
+      <c r="C29" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45116</v>
+        <v>45144.99999999999</v>
       </c>
       <c r="B30" t="n">
-        <v>56</v>
-      </c>
-      <c r="C30" s="2" t="n">
-        <v>45110</v>
-      </c>
-      <c r="D30" t="n">
-        <v>0</v>
+        <v>61</v>
+      </c>
+      <c r="C30" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45123</v>
+        <v>45151.99999999999</v>
       </c>
       <c r="B31" t="n">
-        <v>81</v>
-      </c>
-      <c r="C31" s="2" t="n">
-        <v>45117</v>
-      </c>
-      <c r="D31" t="n">
-        <v>0</v>
+        <v>61</v>
+      </c>
+      <c r="C31" t="n">
+        <v>150</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45130</v>
+        <v>45158.99999999999</v>
       </c>
       <c r="B32" t="n">
-        <v>93</v>
-      </c>
-      <c r="C32" s="2" t="n">
-        <v>45124</v>
-      </c>
-      <c r="D32" t="n">
-        <v>0</v>
+        <v>50</v>
+      </c>
+      <c r="C32" t="n">
+        <v>70</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45137</v>
+        <v>45165.99999999999</v>
       </c>
       <c r="B33" t="n">
-        <v>84</v>
-      </c>
-      <c r="C33" s="2" t="n">
-        <v>45131</v>
-      </c>
-      <c r="D33" t="n">
-        <v>0</v>
+        <v>85</v>
+      </c>
+      <c r="C33" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>45144</v>
+        <v>45172.99999999999</v>
       </c>
       <c r="B34" t="n">
-        <v>61</v>
-      </c>
-      <c r="C34" s="2" t="n">
-        <v>45138</v>
-      </c>
-      <c r="D34" t="n">
-        <v>0</v>
+        <v>63</v>
+      </c>
+      <c r="C34" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>45151</v>
+        <v>45179.99999999999</v>
       </c>
       <c r="B35" t="n">
-        <v>61</v>
-      </c>
-      <c r="C35" s="2" t="n">
-        <v>45145</v>
-      </c>
-      <c r="D35" t="n">
+        <v>52</v>
+      </c>
+      <c r="C35" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>45158</v>
+        <v>45186.99999999999</v>
       </c>
       <c r="B36" t="n">
-        <v>50</v>
-      </c>
-      <c r="C36" s="2" t="n">
-        <v>45152</v>
-      </c>
-      <c r="D36" t="n">
-        <v>0</v>
+        <v>57</v>
+      </c>
+      <c r="C36" t="n">
+        <v>60</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>45165</v>
+        <v>45193.99999999999</v>
       </c>
       <c r="B37" t="n">
-        <v>85</v>
-      </c>
-      <c r="C37" s="2" t="n">
-        <v>45159</v>
-      </c>
-      <c r="D37" t="n">
-        <v>0</v>
+        <v>81</v>
+      </c>
+      <c r="C37" t="n">
+        <v>300</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>45172</v>
+        <v>45200.99999999999</v>
       </c>
       <c r="B38" t="n">
-        <v>63</v>
-      </c>
-      <c r="C38" s="2" t="n">
-        <v>45166</v>
-      </c>
-      <c r="D38" t="n">
-        <v>0</v>
+        <v>66</v>
+      </c>
+      <c r="C38" t="n">
+        <v>190</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>45179</v>
+        <v>45207.99999999999</v>
       </c>
       <c r="B39" t="n">
-        <v>52</v>
-      </c>
-      <c r="C39" s="2" t="n">
-        <v>45173</v>
-      </c>
-      <c r="D39" t="n">
-        <v>0</v>
+        <v>64</v>
+      </c>
+      <c r="C39" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>45186</v>
+        <v>45214.99999999999</v>
       </c>
       <c r="B40" t="n">
-        <v>57</v>
-      </c>
-      <c r="C40" s="2" t="n">
-        <v>45180</v>
-      </c>
-      <c r="D40" t="n">
-        <v>0</v>
+        <v>46</v>
+      </c>
+      <c r="C40" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>45193</v>
+        <v>45221.99999999999</v>
       </c>
       <c r="B41" t="n">
-        <v>81</v>
-      </c>
-      <c r="C41" s="2" t="n">
-        <v>45187</v>
-      </c>
-      <c r="D41" t="n">
-        <v>0</v>
+        <v>148</v>
+      </c>
+      <c r="C41" t="n">
+        <v>370</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>45200</v>
+        <v>45228.99999999999</v>
       </c>
       <c r="B42" t="n">
-        <v>66</v>
-      </c>
-      <c r="C42" s="2" t="n">
-        <v>45194</v>
-      </c>
-      <c r="D42" t="n">
+        <v>120</v>
+      </c>
+      <c r="C42" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>45207</v>
+        <v>45235.99999999999</v>
       </c>
       <c r="B43" t="n">
-        <v>64</v>
-      </c>
-      <c r="C43" s="2" t="n">
-        <v>45201</v>
-      </c>
-      <c r="D43" t="n">
+        <v>68</v>
+      </c>
+      <c r="C43" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>45214</v>
+        <v>45242.99999999999</v>
       </c>
       <c r="B44" t="n">
-        <v>46</v>
-      </c>
-      <c r="C44" s="2" t="n">
-        <v>45208</v>
-      </c>
-      <c r="D44" t="n">
+        <v>32</v>
+      </c>
+      <c r="C44" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>45221</v>
+        <v>45249.99999999999</v>
       </c>
       <c r="B45" t="n">
-        <v>148</v>
-      </c>
-      <c r="C45" s="2" t="n">
-        <v>45215</v>
-      </c>
-      <c r="D45" t="n">
+        <v>19</v>
+      </c>
+      <c r="C45" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>45228</v>
+        <v>45256.99999999999</v>
       </c>
       <c r="B46" t="n">
-        <v>120</v>
-      </c>
-      <c r="C46" s="2" t="n">
-        <v>45222</v>
-      </c>
-      <c r="D46" t="n">
+        <v>3</v>
+      </c>
+      <c r="C46" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>45235</v>
+        <v>45263.99999999999</v>
       </c>
       <c r="B47" t="n">
-        <v>68</v>
-      </c>
-      <c r="C47" s="2" t="n">
-        <v>45229</v>
-      </c>
-      <c r="D47" t="n">
+        <v>1</v>
+      </c>
+      <c r="C47" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>45242</v>
+        <v>45270.99999999999</v>
       </c>
       <c r="B48" t="n">
-        <v>32</v>
-      </c>
-      <c r="C48" s="2" t="n">
-        <v>45236</v>
-      </c>
-      <c r="D48" t="n">
+        <v>3</v>
+      </c>
+      <c r="C48" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>45249</v>
+        <v>45277.99999999999</v>
       </c>
       <c r="B49" t="n">
-        <v>19</v>
-      </c>
-      <c r="C49" s="2" t="n">
-        <v>45243</v>
-      </c>
-      <c r="D49" t="n">
+        <v>2</v>
+      </c>
+      <c r="C49" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>45256</v>
+        <v>45291.99999999999</v>
       </c>
       <c r="B50" t="n">
-        <v>3</v>
-      </c>
-      <c r="C50" s="2" t="n">
-        <v>45250</v>
-      </c>
-      <c r="D50" t="n">
+        <v>0</v>
+      </c>
+      <c r="C50" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>45263</v>
+        <v>45298.99999999999</v>
       </c>
       <c r="B51" t="n">
         <v>1</v>
       </c>
-      <c r="C51" s="2" t="n">
-        <v>45257</v>
-      </c>
-      <c r="D51" t="n">
+      <c r="C51" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>45270</v>
+        <v>45305.99999999999</v>
       </c>
       <c r="B52" t="n">
-        <v>3</v>
-      </c>
-      <c r="C52" s="2" t="n">
-        <v>45264</v>
-      </c>
-      <c r="D52" t="n">
+        <v>2</v>
+      </c>
+      <c r="C52" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>45277</v>
+        <v>45312.99999999999</v>
       </c>
       <c r="B53" t="n">
-        <v>2</v>
-      </c>
-      <c r="C53" s="2" t="n">
-        <v>45271</v>
-      </c>
-      <c r="D53" t="n">
+        <v>1</v>
+      </c>
+      <c r="C53" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>45291</v>
+        <v>45319.99999999999</v>
       </c>
       <c r="B54" t="n">
-        <v>0</v>
-      </c>
-      <c r="C54" s="2" t="n">
-        <v>45285</v>
-      </c>
-      <c r="D54" t="n">
+        <v>3</v>
+      </c>
+      <c r="C54" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>45298</v>
+        <v>45326.99999999999</v>
       </c>
       <c r="B55" t="n">
-        <v>1</v>
-      </c>
-      <c r="C55" s="2" t="n">
-        <v>45292</v>
-      </c>
-      <c r="D55" t="n">
+        <v>0</v>
+      </c>
+      <c r="C55" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>45305</v>
+        <v>45333.99999999999</v>
       </c>
       <c r="B56" t="n">
-        <v>2</v>
-      </c>
-      <c r="C56" s="2" t="n">
-        <v>45299</v>
-      </c>
-      <c r="D56" t="n">
+        <v>0</v>
+      </c>
+      <c r="C56" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>45312</v>
+        <v>45340.99999999999</v>
       </c>
       <c r="B57" t="n">
-        <v>1</v>
-      </c>
-      <c r="C57" s="2" t="n">
-        <v>45306</v>
-      </c>
-      <c r="D57" t="n">
+        <v>0</v>
+      </c>
+      <c r="C57" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>45319</v>
+        <v>45347.99999999999</v>
       </c>
       <c r="B58" t="n">
-        <v>3</v>
-      </c>
-      <c r="C58" s="2" t="n">
-        <v>45313</v>
-      </c>
-      <c r="D58" t="n">
+        <v>0</v>
+      </c>
+      <c r="C58" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>45326</v>
+        <v>45354.99999999999</v>
       </c>
       <c r="B59" t="n">
-        <v>0</v>
-      </c>
-      <c r="C59" s="2" t="n">
-        <v>45320</v>
-      </c>
-      <c r="D59" t="n">
+        <v>1</v>
+      </c>
+      <c r="C59" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>45333</v>
+        <v>45361.99999999999</v>
       </c>
       <c r="B60" t="n">
-        <v>0</v>
-      </c>
-      <c r="C60" s="2" t="n">
-        <v>45327</v>
-      </c>
-      <c r="D60" t="n">
+        <v>1</v>
+      </c>
+      <c r="C60" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>45340</v>
+        <v>45368.99999999999</v>
       </c>
       <c r="B61" t="n">
         <v>0</v>
       </c>
-      <c r="C61" s="2" t="n">
-        <v>45334</v>
-      </c>
-      <c r="D61" t="n">
-        <v>0</v>
+      <c r="C61" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>45347</v>
+        <v>45375.99999999999</v>
       </c>
       <c r="B62" t="n">
         <v>0</v>
       </c>
-      <c r="C62" s="2" t="n">
-        <v>45341</v>
-      </c>
-      <c r="D62" t="n">
+      <c r="C62" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>45354</v>
+        <v>45382.99999999999</v>
       </c>
       <c r="B63" t="n">
-        <v>1</v>
-      </c>
-      <c r="C63" s="2" t="n">
-        <v>45348</v>
-      </c>
-      <c r="D63" t="n">
+        <v>0</v>
+      </c>
+      <c r="C63" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>45361</v>
+        <v>45396.99999999999</v>
       </c>
       <c r="B64" t="n">
-        <v>1</v>
-      </c>
-      <c r="C64" s="2" t="n">
-        <v>45355</v>
-      </c>
-      <c r="D64" t="n">
+        <v>0</v>
+      </c>
+      <c r="C64" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>45368</v>
+        <v>45403.99999999999</v>
       </c>
       <c r="B65" t="n">
         <v>0</v>
       </c>
-      <c r="C65" s="2" t="n">
-        <v>45362</v>
-      </c>
-      <c r="D65" t="n">
+      <c r="C65" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>45375</v>
+        <v>45410.99999999999</v>
       </c>
       <c r="B66" t="n">
         <v>0</v>
       </c>
-      <c r="C66" s="2" t="n">
-        <v>45369</v>
-      </c>
-      <c r="D66" t="n">
+      <c r="C66" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>45382</v>
+        <v>45417.99999999999</v>
       </c>
       <c r="B67" t="n">
         <v>0</v>
       </c>
-      <c r="C67" s="2" t="n">
-        <v>45376</v>
-      </c>
-      <c r="D67" t="n">
+      <c r="C67" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>45396</v>
+        <v>45424.99999999999</v>
       </c>
       <c r="B68" t="n">
         <v>0</v>
       </c>
-      <c r="C68" s="2" t="n">
-        <v>45390</v>
-      </c>
-      <c r="D68" t="n">
+      <c r="C68" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>45403</v>
+        <v>45431.99999999999</v>
       </c>
       <c r="B69" t="n">
         <v>0</v>
       </c>
-      <c r="C69" s="2" t="n">
-        <v>45397</v>
-      </c>
-      <c r="D69" t="n">
+      <c r="C69" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>45410</v>
+        <v>45438.99999999999</v>
       </c>
       <c r="B70" t="n">
         <v>0</v>
       </c>
-      <c r="C70" s="2" t="n">
-        <v>45404</v>
-      </c>
-      <c r="D70" t="n">
+      <c r="C70" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>45417</v>
+        <v>45445.99999999999</v>
       </c>
       <c r="B71" t="n">
         <v>0</v>
       </c>
-      <c r="C71" s="2" t="n">
-        <v>45411</v>
-      </c>
-      <c r="D71" t="n">
+      <c r="C71" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>45424</v>
+        <v>45452.99999999999</v>
       </c>
       <c r="B72" t="n">
         <v>0</v>
       </c>
-      <c r="C72" s="2" t="n">
-        <v>45418</v>
-      </c>
-      <c r="D72" t="n">
+      <c r="C72" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>45431</v>
+        <v>45459.99999999999</v>
       </c>
       <c r="B73" t="n">
         <v>0</v>
       </c>
-      <c r="C73" s="2" t="n">
-        <v>45425</v>
-      </c>
-      <c r="D73" t="n">
+      <c r="C73" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>45438</v>
+        <v>45466.99999999999</v>
       </c>
       <c r="B74" t="n">
         <v>0</v>
       </c>
-      <c r="C74" s="2" t="n">
-        <v>45432</v>
-      </c>
-      <c r="D74" t="n">
+      <c r="C74" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>45445</v>
+        <v>45473.99999999999</v>
       </c>
       <c r="B75" t="n">
         <v>0</v>
       </c>
-      <c r="C75" s="2" t="n">
-        <v>45439</v>
-      </c>
-      <c r="D75" t="n">
+      <c r="C75" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>45452</v>
+        <v>45480.99999999999</v>
       </c>
       <c r="B76" t="n">
-        <v>0</v>
-      </c>
-      <c r="C76" s="2" t="n">
-        <v>45446</v>
-      </c>
-      <c r="D76" t="n">
+        <v>2</v>
+      </c>
+      <c r="C76" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>45459</v>
+        <v>45487.99999999999</v>
       </c>
       <c r="B77" t="n">
-        <v>0</v>
-      </c>
-      <c r="C77" s="2" t="n">
-        <v>45453</v>
-      </c>
-      <c r="D77" t="n">
+        <v>3</v>
+      </c>
+      <c r="C77" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>45466</v>
+        <v>45494.99999999999</v>
       </c>
       <c r="B78" t="n">
-        <v>0</v>
-      </c>
-      <c r="C78" s="2" t="n">
-        <v>45460</v>
-      </c>
-      <c r="D78" t="n">
+        <v>1</v>
+      </c>
+      <c r="C78" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>45473</v>
+        <v>45501.99999999999</v>
       </c>
       <c r="B79" t="n">
-        <v>0</v>
-      </c>
-      <c r="C79" s="2" t="n">
-        <v>45467</v>
-      </c>
-      <c r="D79" t="n">
+        <v>1</v>
+      </c>
+      <c r="C79" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>45480</v>
+        <v>45508.99999999999</v>
       </c>
       <c r="B80" t="n">
-        <v>2</v>
-      </c>
-      <c r="C80" s="2" t="n">
-        <v>45474</v>
-      </c>
-      <c r="D80" t="n">
+        <v>0</v>
+      </c>
+      <c r="C80" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>45487</v>
+        <v>45515.99999999999</v>
       </c>
       <c r="B81" t="n">
-        <v>3</v>
-      </c>
-      <c r="C81" s="2" t="n">
-        <v>45481</v>
-      </c>
-      <c r="D81" t="n">
+        <v>2</v>
+      </c>
+      <c r="C81" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>45494</v>
+        <v>45522.99999999999</v>
       </c>
       <c r="B82" t="n">
-        <v>1</v>
-      </c>
-      <c r="C82" s="2" t="n">
-        <v>45488</v>
-      </c>
-      <c r="D82" t="n">
+        <v>0</v>
+      </c>
+      <c r="C82" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>45501</v>
+        <v>45529.99999999999</v>
       </c>
       <c r="B83" t="n">
         <v>1</v>
       </c>
-      <c r="C83" s="2" t="n">
-        <v>45495</v>
-      </c>
-      <c r="D83" t="n">
+      <c r="C83" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>45508</v>
+        <v>45536.99999999999</v>
       </c>
       <c r="B84" t="n">
         <v>0</v>
       </c>
-      <c r="C84" s="2" t="n">
-        <v>45502</v>
-      </c>
-      <c r="D84" t="n">
+      <c r="C84" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>45515</v>
+        <v>45543.99999999999</v>
       </c>
       <c r="B85" t="n">
-        <v>2</v>
-      </c>
-      <c r="C85" s="2" t="n">
-        <v>45509</v>
-      </c>
-      <c r="D85" t="n">
+        <v>0</v>
+      </c>
+      <c r="C85" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
-        <v>45522</v>
+        <v>45550.99999999999</v>
       </c>
       <c r="B86" t="n">
         <v>0</v>
       </c>
-      <c r="C86" s="2" t="n">
-        <v>45516</v>
-      </c>
-      <c r="D86" t="n">
+      <c r="C86" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
-        <v>45529</v>
+        <v>45557.99999999999</v>
       </c>
       <c r="B87" t="n">
-        <v>1</v>
-      </c>
-      <c r="C87" s="2" t="n">
-        <v>45523</v>
-      </c>
-      <c r="D87" t="n">
+        <v>0</v>
+      </c>
+      <c r="C87" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
-        <v>45536</v>
+        <v>45564.99999999999</v>
       </c>
       <c r="B88" t="n">
         <v>0</v>
       </c>
-      <c r="C88" s="2" t="n">
-        <v>45530</v>
-      </c>
-      <c r="D88" t="n">
+      <c r="C88" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>45543</v>
+        <v>45571.99999999999</v>
       </c>
       <c r="B89" t="n">
         <v>0</v>
       </c>
-      <c r="C89" s="2" t="n">
-        <v>45537</v>
-      </c>
-      <c r="D89" t="n">
+      <c r="C89" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>45550</v>
+        <v>45578.99999999999</v>
       </c>
       <c r="B90" t="n">
         <v>0</v>
       </c>
-      <c r="C90" s="2" t="n">
-        <v>45544</v>
-      </c>
-      <c r="D90" t="n">
+      <c r="C90" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
-        <v>45557</v>
+        <v>45585.99999999999</v>
       </c>
       <c r="B91" t="n">
         <v>0</v>
       </c>
-      <c r="C91" s="2" t="n">
-        <v>45551</v>
-      </c>
-      <c r="D91" t="n">
+      <c r="C91" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
-        <v>45564</v>
+        <v>45592.99999999999</v>
       </c>
       <c r="B92" t="n">
         <v>0</v>
       </c>
-      <c r="C92" s="2" t="n">
-        <v>45558</v>
-      </c>
-      <c r="D92" t="n">
+      <c r="C92" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
-        <v>45571</v>
+        <v>45599.99999999999</v>
       </c>
       <c r="B93" t="n">
         <v>0</v>
       </c>
-      <c r="C93" s="2" t="n">
-        <v>45565</v>
-      </c>
-      <c r="D93" t="n">
+      <c r="C93" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
-        <v>45578</v>
+        <v>45606.99999999999</v>
       </c>
       <c r="B94" t="n">
         <v>0</v>
       </c>
-      <c r="C94" s="2" t="n">
-        <v>45572</v>
-      </c>
-      <c r="D94" t="n">
+      <c r="C94" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
-        <v>45585</v>
+        <v>45613.99999999999</v>
       </c>
       <c r="B95" t="n">
         <v>0</v>
       </c>
-      <c r="C95" s="2" t="n">
-        <v>45579</v>
-      </c>
-      <c r="D95" t="n">
+      <c r="C95" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
-        <v>45592</v>
+        <v>45620.99999999999</v>
       </c>
       <c r="B96" t="n">
         <v>0</v>
       </c>
-      <c r="C96" s="2" t="n">
-        <v>45586</v>
-      </c>
-      <c r="D96" t="n">
+      <c r="C96" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
-        <v>45599</v>
+        <v>45627.99999999999</v>
       </c>
       <c r="B97" t="n">
         <v>0</v>
       </c>
-      <c r="C97" s="2" t="n">
-        <v>45593</v>
-      </c>
-      <c r="D97" t="n">
+      <c r="C97" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
-        <v>45606</v>
+        <v>45634.99999999999</v>
       </c>
       <c r="B98" t="n">
         <v>0</v>
       </c>
-      <c r="C98" s="2" t="n">
-        <v>45600</v>
-      </c>
-      <c r="D98" t="n">
+      <c r="C98" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
-        <v>45613</v>
+        <v>45641.99999999999</v>
       </c>
       <c r="B99" t="n">
         <v>0</v>
       </c>
-      <c r="C99" s="2" t="n">
-        <v>45607</v>
-      </c>
-      <c r="D99" t="n">
+      <c r="C99" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
-        <v>45620</v>
+        <v>45648.99999999999</v>
       </c>
       <c r="B100" t="n">
         <v>0</v>
       </c>
-      <c r="C100" s="2" t="n">
-        <v>45614</v>
-      </c>
-      <c r="D100" t="n">
+      <c r="C100" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
-        <v>45627</v>
+        <v>45655.99999999999</v>
       </c>
       <c r="B101" t="n">
         <v>0</v>
       </c>
-      <c r="C101" s="2" t="n">
-        <v>45621</v>
-      </c>
-      <c r="D101" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" s="2" t="n">
-        <v>45634</v>
-      </c>
-      <c r="B102" t="n">
-        <v>0</v>
-      </c>
-      <c r="C102" s="2" t="n">
-        <v>45628</v>
-      </c>
-      <c r="D102" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" s="2" t="n">
-        <v>45641</v>
-      </c>
-      <c r="B103" t="n">
-        <v>0</v>
-      </c>
-      <c r="C103" s="2" t="n">
-        <v>45635</v>
-      </c>
-      <c r="D103" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" s="2" t="n">
-        <v>45648</v>
-      </c>
-      <c r="B104" t="n">
-        <v>0</v>
-      </c>
-      <c r="C104" s="2" t="n">
-        <v>45642</v>
-      </c>
-      <c r="D104" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" s="2" t="n">
-        <v>45655</v>
-      </c>
-      <c r="B105" t="n">
-        <v>0</v>
-      </c>
-      <c r="C105" s="2" t="n">
-        <v>45649</v>
-      </c>
-      <c r="D105" t="n">
+      <c r="C101" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1929,7 +1568,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1956,13 +1595,299 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45362</v>
+        <v>44955.99999999999</v>
       </c>
       <c r="B2" t="n">
+        <v>300</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>44983.99999999999</v>
+      </c>
+      <c r="B3" t="n">
+        <v>80</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-73.33333333333334</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>44990.99999999999</v>
+      </c>
+      <c r="B4" t="n">
+        <v>460</v>
+      </c>
+      <c r="C4" t="n">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>44997.99999999999</v>
+      </c>
+      <c r="B5" t="n">
+        <v>60</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-86.95652173913044</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45053.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>10</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-83.33333333333334</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45060.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>10</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45081.99999999999</v>
+      </c>
+      <c r="B8" t="n">
         <v>30</v>
       </c>
-      <c r="C2" t="n">
-        <v>0</v>
+      <c r="C8" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45088.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>70</v>
+      </c>
+      <c r="C9" t="n">
+        <v>133.3333333333333</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45095.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>100</v>
+      </c>
+      <c r="C10" t="n">
+        <v>42.85714285714286</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45102.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>220</v>
+      </c>
+      <c r="C11" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45109.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>40</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-81.81818181818181</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45116.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>160</v>
+      </c>
+      <c r="C13" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45123.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>50</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-68.75</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45130.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>10</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-80</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45137.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>50</v>
+      </c>
+      <c r="C16" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45144.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>50</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45151.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>150</v>
+      </c>
+      <c r="C18" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45158.99999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>70</v>
+      </c>
+      <c r="C19" t="n">
+        <v>-53.33333333333334</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45165.99999999999</v>
+      </c>
+      <c r="B20" t="n">
+        <v>100</v>
+      </c>
+      <c r="C20" t="n">
+        <v>42.85714285714286</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45172.99999999999</v>
+      </c>
+      <c r="B21" t="n">
+        <v>20</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-80</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45186.99999999999</v>
+      </c>
+      <c r="B22" t="n">
+        <v>60</v>
+      </c>
+      <c r="C22" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45193.99999999999</v>
+      </c>
+      <c r="B23" t="n">
+        <v>300</v>
+      </c>
+      <c r="C23" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45200.99999999999</v>
+      </c>
+      <c r="B24" t="n">
+        <v>190</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-36.66666666666667</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45207.99999999999</v>
+      </c>
+      <c r="B25" t="n">
+        <v>30</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-84.21052631578947</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45214.99999999999</v>
+      </c>
+      <c r="B26" t="n">
+        <v>100</v>
+      </c>
+      <c r="C26" t="n">
+        <v>233.3333333333333</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45221.99999999999</v>
+      </c>
+      <c r="B27" t="n">
+        <v>370</v>
+      </c>
+      <c r="C27" t="n">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45368.99999999999</v>
+      </c>
+      <c r="B28" t="n">
+        <v>30</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-91.89189189189189</v>
       </c>
     </row>
   </sheetData>
@@ -2008,16 +1933,16 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>30</v>
+        <v>3120</v>
       </c>
       <c r="B2" t="n">
-        <v>30</v>
+        <v>115.5555555555556</v>
       </c>
       <c r="C2" t="n">
-        <v>30</v>
+        <v>460</v>
       </c>
       <c r="D2" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -2048,7 +1973,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0</v>
+        <v>107.6068376068376</v>
       </c>
     </row>
   </sheetData>

--- a/po forecast comparison/B08BR1XDX5_sales_po_comparison.xlsx
+++ b/po forecast comparison/B08BR1XDX5_sales_po_comparison.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B101"/>
+  <dimension ref="A1:B102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1250,6 +1250,14 @@
         <v>45655.99999999999</v>
       </c>
       <c r="B101" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>45662.99999999999</v>
+      </c>
+      <c r="B102" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1264,7 +1272,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AG87"/>
+  <dimension ref="A1:AG84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1442,7 +1450,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>1IOEIXJN</t>
+          <t>6UG3UAQS</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -1491,10 +1499,10 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="N2" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -1503,21 +1511,21 @@
         <v>20</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R2" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>GYR3</t>
+          <t>SCK4</t>
         </is>
       </c>
       <c r="T2" s="2" t="n">
         <v>44956</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>44960</v>
+        <v>44959</v>
       </c>
       <c r="V2" t="n">
         <v>1</v>
@@ -1531,19 +1539,19 @@
         </is>
       </c>
       <c r="Y2" t="n">
-        <v>4140</v>
+        <v>2760</v>
       </c>
       <c r="Z2" t="n">
-        <v>4140</v>
+        <v>2760</v>
       </c>
       <c r="AA2" t="n">
         <v>2760</v>
       </c>
       <c r="AB2" t="n">
-        <v>0</v>
+        <v>138</v>
       </c>
       <c r="AC2" s="2" t="n">
-        <v>44979</v>
+        <v>44978</v>
       </c>
       <c r="AD2" t="inlineStr">
         <is>
@@ -1676,7 +1684,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>3N82NPXI</t>
+          <t>3DNHIE7I</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1725,16 +1733,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="N4" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -1744,7 +1752,7 @@
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>AVP1</t>
+          <t>MQJ1</t>
         </is>
       </c>
       <c r="T4" s="2" t="n">
@@ -1765,19 +1773,19 @@
         </is>
       </c>
       <c r="Y4" t="n">
-        <v>2760</v>
+        <v>1380</v>
       </c>
       <c r="Z4" t="n">
-        <v>2760</v>
+        <v>1380</v>
       </c>
       <c r="AA4" t="n">
-        <v>2760</v>
+        <v>1380</v>
       </c>
       <c r="AB4" t="n">
         <v>0</v>
       </c>
       <c r="AC4" s="2" t="n">
-        <v>44990</v>
+        <v>44974</v>
       </c>
       <c r="AD4" t="inlineStr">
         <is>
@@ -1793,7 +1801,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>3SRCH2IB</t>
+          <t>3N82NPXI</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1842,16 +1850,16 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="N5" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -1861,7 +1869,7 @@
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>LAS1</t>
+          <t>AVP1</t>
         </is>
       </c>
       <c r="T5" s="2" t="n">
@@ -1882,19 +1890,19 @@
         </is>
       </c>
       <c r="Y5" t="n">
-        <v>1380</v>
+        <v>2760</v>
       </c>
       <c r="Z5" t="n">
-        <v>1380</v>
+        <v>2760</v>
       </c>
       <c r="AA5" t="n">
-        <v>1380</v>
+        <v>2760</v>
       </c>
       <c r="AB5" t="n">
         <v>0</v>
       </c>
       <c r="AC5" s="2" t="n">
-        <v>44977</v>
+        <v>44990</v>
       </c>
       <c r="AD5" t="inlineStr">
         <is>
@@ -1910,7 +1918,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>635WEIME</t>
+          <t>3SRCH2IB</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1959,16 +1967,16 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="N6" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -1978,7 +1986,7 @@
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>FWA4</t>
+          <t>LAS1</t>
         </is>
       </c>
       <c r="T6" s="2" t="n">
@@ -1999,19 +2007,19 @@
         </is>
       </c>
       <c r="Y6" t="n">
-        <v>4140</v>
+        <v>1380</v>
       </c>
       <c r="Z6" t="n">
-        <v>4140</v>
+        <v>1380</v>
       </c>
       <c r="AA6" t="n">
-        <v>4140</v>
+        <v>1380</v>
       </c>
       <c r="AB6" t="n">
         <v>0</v>
       </c>
       <c r="AC6" s="2" t="n">
-        <v>44986</v>
+        <v>44977</v>
       </c>
       <c r="AD6" t="inlineStr">
         <is>
@@ -2027,7 +2035,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>6DS9FB1N</t>
+          <t>635WEIME</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -2076,16 +2084,16 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="N7" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="O7" t="n">
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -2095,7 +2103,7 @@
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>CLT2</t>
+          <t>FWA4</t>
         </is>
       </c>
       <c r="T7" s="2" t="n">
@@ -2116,19 +2124,19 @@
         </is>
       </c>
       <c r="Y7" t="n">
-        <v>2760</v>
+        <v>4140</v>
       </c>
       <c r="Z7" t="n">
-        <v>2760</v>
+        <v>4140</v>
       </c>
       <c r="AA7" t="n">
-        <v>2760</v>
+        <v>4140</v>
       </c>
       <c r="AB7" t="n">
         <v>0</v>
       </c>
       <c r="AC7" s="2" t="n">
-        <v>44979</v>
+        <v>44986</v>
       </c>
       <c r="AD7" t="inlineStr">
         <is>
@@ -2144,7 +2152,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>6I9RD6XX</t>
+          <t>6DS9FB1N</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -2202,24 +2210,24 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>IND9</t>
+          <t>CLT2</t>
         </is>
       </c>
       <c r="T8" s="2" t="n">
         <v>44956</v>
       </c>
       <c r="U8" s="2" t="n">
-        <v>44959</v>
+        <v>44960</v>
       </c>
       <c r="V8" t="n">
         <v>1</v>
@@ -2239,13 +2247,13 @@
         <v>2760</v>
       </c>
       <c r="AA8" t="n">
-        <v>2622</v>
+        <v>2760</v>
       </c>
       <c r="AB8" t="n">
         <v>0</v>
       </c>
       <c r="AC8" s="2" t="n">
-        <v>44986</v>
+        <v>44979</v>
       </c>
       <c r="AD8" t="inlineStr">
         <is>
@@ -2261,7 +2269,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>81XLCCYV</t>
+          <t>1IOEIXJN</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2310,10 +2318,10 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="N9" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -2325,18 +2333,18 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>SCK4</t>
+          <t>GYR3</t>
         </is>
       </c>
       <c r="T9" s="2" t="n">
         <v>44956</v>
       </c>
       <c r="U9" s="2" t="n">
-        <v>44959</v>
+        <v>44960</v>
       </c>
       <c r="V9" t="n">
         <v>1</v>
@@ -2350,10 +2358,10 @@
         </is>
       </c>
       <c r="Y9" t="n">
-        <v>2760</v>
+        <v>4140</v>
       </c>
       <c r="Z9" t="n">
-        <v>2760</v>
+        <v>4140</v>
       </c>
       <c r="AA9" t="n">
         <v>2760</v>
@@ -2362,7 +2370,7 @@
         <v>0</v>
       </c>
       <c r="AC9" s="2" t="n">
-        <v>44976</v>
+        <v>44979</v>
       </c>
       <c r="AD9" t="inlineStr">
         <is>
@@ -2378,7 +2386,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>3DNHIE7I</t>
+          <t>81XLCCYV</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2427,16 +2435,16 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="N10" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="O10" t="n">
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -2446,14 +2454,14 @@
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>MQJ1</t>
+          <t>SCK4</t>
         </is>
       </c>
       <c r="T10" s="2" t="n">
         <v>44956</v>
       </c>
       <c r="U10" s="2" t="n">
-        <v>44960</v>
+        <v>44959</v>
       </c>
       <c r="V10" t="n">
         <v>1</v>
@@ -2467,19 +2475,19 @@
         </is>
       </c>
       <c r="Y10" t="n">
-        <v>1380</v>
+        <v>2760</v>
       </c>
       <c r="Z10" t="n">
-        <v>1380</v>
+        <v>2760</v>
       </c>
       <c r="AA10" t="n">
-        <v>1380</v>
+        <v>2760</v>
       </c>
       <c r="AB10" t="n">
         <v>0</v>
       </c>
       <c r="AC10" s="2" t="n">
-        <v>44974</v>
+        <v>44976</v>
       </c>
       <c r="AD10" t="inlineStr">
         <is>
@@ -2495,7 +2503,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>8SRK79CG</t>
+          <t>829DH5FY</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2544,16 +2552,16 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="N11" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -2563,7 +2571,7 @@
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>ABE8</t>
+          <t>MEM1</t>
         </is>
       </c>
       <c r="T11" s="2" t="n">
@@ -2584,19 +2592,19 @@
         </is>
       </c>
       <c r="Y11" t="n">
-        <v>5520</v>
+        <v>2760</v>
       </c>
       <c r="Z11" t="n">
-        <v>5520</v>
+        <v>2760</v>
       </c>
       <c r="AA11" t="n">
-        <v>5520</v>
+        <v>3450</v>
       </c>
       <c r="AB11" t="n">
         <v>0</v>
       </c>
       <c r="AC11" s="2" t="n">
-        <v>44989</v>
+        <v>44987</v>
       </c>
       <c r="AD11" t="inlineStr">
         <is>
@@ -2612,7 +2620,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>3WRMT2OI</t>
+          <t>8SRK79CG</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2661,16 +2669,16 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="N12" t="n">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -2680,14 +2688,14 @@
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>MDW2</t>
+          <t>ABE8</t>
         </is>
       </c>
       <c r="T12" s="2" t="n">
         <v>44956</v>
       </c>
       <c r="U12" s="2" t="n">
-        <v>44960</v>
+        <v>44959</v>
       </c>
       <c r="V12" t="n">
         <v>1</v>
@@ -2701,19 +2709,19 @@
         </is>
       </c>
       <c r="Y12" t="n">
-        <v>1380</v>
+        <v>5520</v>
       </c>
       <c r="Z12" t="n">
-        <v>1380</v>
+        <v>5520</v>
       </c>
       <c r="AA12" t="n">
-        <v>1380</v>
+        <v>5520</v>
       </c>
       <c r="AB12" t="n">
         <v>0</v>
       </c>
       <c r="AC12" s="2" t="n">
-        <v>44977</v>
+        <v>44989</v>
       </c>
       <c r="AD12" t="inlineStr">
         <is>
@@ -2729,7 +2737,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>3ZEE5TQD</t>
+          <t>3WRMT2OI</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2797,7 +2805,7 @@
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>FTW1</t>
+          <t>MDW2</t>
         </is>
       </c>
       <c r="T13" s="2" t="n">
@@ -2830,7 +2838,7 @@
         <v>0</v>
       </c>
       <c r="AC13" s="2" t="n">
-        <v>44982</v>
+        <v>44977</v>
       </c>
       <c r="AD13" t="inlineStr">
         <is>
@@ -2846,7 +2854,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>69RY3AUG</t>
+          <t>3ZEE5TQD</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2895,26 +2903,26 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="N14" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="Q14" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>LGB8</t>
+          <t>FTW1</t>
         </is>
       </c>
       <c r="T14" s="2" t="n">
@@ -2935,19 +2943,19 @@
         </is>
       </c>
       <c r="Y14" t="n">
-        <v>4140</v>
+        <v>1380</v>
       </c>
       <c r="Z14" t="n">
-        <v>4140</v>
+        <v>1380</v>
       </c>
       <c r="AA14" t="n">
-        <v>2760</v>
+        <v>1380</v>
       </c>
       <c r="AB14" t="n">
-        <v>1380</v>
+        <v>0</v>
       </c>
       <c r="AC14" s="2" t="n">
-        <v>44980</v>
+        <v>44982</v>
       </c>
       <c r="AD14" t="inlineStr">
         <is>
@@ -2963,7 +2971,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>6UG3UAQS</t>
+          <t>69RY3AUG</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -3012,10 +3020,10 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="N15" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -3024,21 +3032,21 @@
         <v>20</v>
       </c>
       <c r="Q15" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>SCK4</t>
+          <t>LGB8</t>
         </is>
       </c>
       <c r="T15" s="2" t="n">
         <v>44956</v>
       </c>
       <c r="U15" s="2" t="n">
-        <v>44959</v>
+        <v>44960</v>
       </c>
       <c r="V15" t="n">
         <v>1</v>
@@ -3052,19 +3060,19 @@
         </is>
       </c>
       <c r="Y15" t="n">
-        <v>2760</v>
+        <v>4140</v>
       </c>
       <c r="Z15" t="n">
-        <v>2760</v>
+        <v>4140</v>
       </c>
       <c r="AA15" t="n">
         <v>2760</v>
       </c>
       <c r="AB15" t="n">
-        <v>138</v>
+        <v>1380</v>
       </c>
       <c r="AC15" s="2" t="n">
-        <v>44978</v>
+        <v>44980</v>
       </c>
       <c r="AD15" t="inlineStr">
         <is>
@@ -3080,7 +3088,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>829DH5FY</t>
+          <t>6I9RD6XX</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -3138,17 +3146,17 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>MEM1</t>
+          <t>IND9</t>
         </is>
       </c>
       <c r="T16" s="2" t="n">
@@ -3175,13 +3183,13 @@
         <v>2760</v>
       </c>
       <c r="AA16" t="n">
-        <v>3450</v>
+        <v>2622</v>
       </c>
       <c r="AB16" t="n">
         <v>0</v>
       </c>
       <c r="AC16" s="2" t="n">
-        <v>44987</v>
+        <v>44986</v>
       </c>
       <c r="AD16" t="inlineStr">
         <is>
@@ -4718,7 +4726,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>3D8YVQ6Y</t>
+          <t>1QBJ9S1E</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -4767,16 +4775,16 @@
         </is>
       </c>
       <c r="M30" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="N30" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -4786,7 +4794,7 @@
       </c>
       <c r="S30" t="inlineStr">
         <is>
-          <t>ONT8</t>
+          <t>LAX9</t>
         </is>
       </c>
       <c r="T30" s="2" t="n">
@@ -4807,13 +4815,13 @@
         </is>
       </c>
       <c r="Y30" t="n">
-        <v>6900</v>
+        <v>4140</v>
       </c>
       <c r="Z30" t="n">
-        <v>6900</v>
+        <v>4140</v>
       </c>
       <c r="AA30" t="n">
-        <v>6900</v>
+        <v>4140</v>
       </c>
       <c r="AB30" t="n">
         <v>0</v>
@@ -4835,7 +4843,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>1QBJ9S1E</t>
+          <t>3ZANNY6W</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -4884,16 +4892,16 @@
         </is>
       </c>
       <c r="M31" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="N31" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="O31" t="n">
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -4903,7 +4911,7 @@
       </c>
       <c r="S31" t="inlineStr">
         <is>
-          <t>LAX9</t>
+          <t>SBD1</t>
         </is>
       </c>
       <c r="T31" s="2" t="n">
@@ -4924,13 +4932,13 @@
         </is>
       </c>
       <c r="Y31" t="n">
-        <v>4140</v>
+        <v>2760</v>
       </c>
       <c r="Z31" t="n">
-        <v>4140</v>
+        <v>2760</v>
       </c>
       <c r="AA31" t="n">
-        <v>4140</v>
+        <v>2760</v>
       </c>
       <c r="AB31" t="n">
         <v>0</v>
@@ -4952,7 +4960,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>3ZANNY6W</t>
+          <t>3D8YVQ6Y</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -5001,16 +5009,16 @@
         </is>
       </c>
       <c r="M32" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="N32" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -5020,7 +5028,7 @@
       </c>
       <c r="S32" t="inlineStr">
         <is>
-          <t>SBD1</t>
+          <t>ONT8</t>
         </is>
       </c>
       <c r="T32" s="2" t="n">
@@ -5041,13 +5049,13 @@
         </is>
       </c>
       <c r="Y32" t="n">
-        <v>2760</v>
+        <v>6900</v>
       </c>
       <c r="Z32" t="n">
-        <v>2760</v>
+        <v>6900</v>
       </c>
       <c r="AA32" t="n">
-        <v>2760</v>
+        <v>6900</v>
       </c>
       <c r="AB32" t="n">
         <v>0</v>
@@ -5069,7 +5077,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>1VO35D6X</t>
+          <t>6R2PYHHQ</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -5118,16 +5126,16 @@
         </is>
       </c>
       <c r="M33" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="N33" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -5137,7 +5145,7 @@
       </c>
       <c r="S33" t="inlineStr">
         <is>
-          <t>FWA4</t>
+          <t>IND9</t>
         </is>
       </c>
       <c r="T33" s="2" t="n">
@@ -5158,13 +5166,13 @@
         </is>
       </c>
       <c r="Y33" t="n">
-        <v>2760</v>
+        <v>4140</v>
       </c>
       <c r="Z33" t="n">
-        <v>2760</v>
+        <v>4140</v>
       </c>
       <c r="AA33" t="n">
-        <v>2760</v>
+        <v>4140</v>
       </c>
       <c r="AB33" t="n">
         <v>0</v>
@@ -5186,7 +5194,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>12ZCOCXX</t>
+          <t>6492GLAM</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -5235,26 +5243,26 @@
         </is>
       </c>
       <c r="M34" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="N34" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="O34" t="n">
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S34" t="inlineStr">
         <is>
-          <t>TEB9</t>
+          <t>AVP1</t>
         </is>
       </c>
       <c r="T34" s="2" t="n">
@@ -5275,13 +5283,13 @@
         </is>
       </c>
       <c r="Y34" t="n">
-        <v>2760</v>
+        <v>4140</v>
       </c>
       <c r="Z34" t="n">
-        <v>2760</v>
+        <v>4140</v>
       </c>
       <c r="AA34" t="n">
-        <v>2760</v>
+        <v>3588</v>
       </c>
       <c r="AB34" t="n">
         <v>0</v>
@@ -5303,7 +5311,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2ENN4HTB</t>
+          <t>4CTNAYYN</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -5371,7 +5379,7 @@
       </c>
       <c r="S35" t="inlineStr">
         <is>
-          <t>CLT2</t>
+          <t>MQJ1</t>
         </is>
       </c>
       <c r="T35" s="2" t="n">
@@ -5420,7 +5428,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>14U4AGSM</t>
+          <t>467LM7QL</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -5469,16 +5477,16 @@
         </is>
       </c>
       <c r="M36" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="N36" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -5488,7 +5496,7 @@
       </c>
       <c r="S36" t="inlineStr">
         <is>
-          <t>MDW2</t>
+          <t>MEM1</t>
         </is>
       </c>
       <c r="T36" s="2" t="n">
@@ -5509,13 +5517,13 @@
         </is>
       </c>
       <c r="Y36" t="n">
-        <v>1380</v>
+        <v>4140</v>
       </c>
       <c r="Z36" t="n">
-        <v>1380</v>
+        <v>4140</v>
       </c>
       <c r="AA36" t="n">
-        <v>1380</v>
+        <v>4140</v>
       </c>
       <c r="AB36" t="n">
         <v>0</v>
@@ -5537,7 +5545,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>467LM7QL</t>
+          <t>2ENN4HTB</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -5586,16 +5594,16 @@
         </is>
       </c>
       <c r="M37" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="N37" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="O37" t="n">
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -5605,7 +5613,7 @@
       </c>
       <c r="S37" t="inlineStr">
         <is>
-          <t>MEM1</t>
+          <t>CLT2</t>
         </is>
       </c>
       <c r="T37" s="2" t="n">
@@ -5626,13 +5634,13 @@
         </is>
       </c>
       <c r="Y37" t="n">
-        <v>4140</v>
+        <v>1380</v>
       </c>
       <c r="Z37" t="n">
-        <v>4140</v>
+        <v>1380</v>
       </c>
       <c r="AA37" t="n">
-        <v>4140</v>
+        <v>1380</v>
       </c>
       <c r="AB37" t="n">
         <v>0</v>
@@ -5654,7 +5662,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>4CTNAYYN</t>
+          <t>1VO35D6X</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -5703,16 +5711,16 @@
         </is>
       </c>
       <c r="M38" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="N38" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -5722,7 +5730,7 @@
       </c>
       <c r="S38" t="inlineStr">
         <is>
-          <t>MQJ1</t>
+          <t>FWA4</t>
         </is>
       </c>
       <c r="T38" s="2" t="n">
@@ -5743,13 +5751,13 @@
         </is>
       </c>
       <c r="Y38" t="n">
-        <v>1380</v>
+        <v>2760</v>
       </c>
       <c r="Z38" t="n">
-        <v>1380</v>
+        <v>2760</v>
       </c>
       <c r="AA38" t="n">
-        <v>1380</v>
+        <v>2760</v>
       </c>
       <c r="AB38" t="n">
         <v>0</v>
@@ -5771,7 +5779,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>6R2PYHHQ</t>
+          <t>14U4AGSM</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -5820,16 +5828,16 @@
         </is>
       </c>
       <c r="M39" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="N39" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -5839,7 +5847,7 @@
       </c>
       <c r="S39" t="inlineStr">
         <is>
-          <t>IND9</t>
+          <t>MDW2</t>
         </is>
       </c>
       <c r="T39" s="2" t="n">
@@ -5860,13 +5868,13 @@
         </is>
       </c>
       <c r="Y39" t="n">
-        <v>4140</v>
+        <v>1380</v>
       </c>
       <c r="Z39" t="n">
-        <v>4140</v>
+        <v>1380</v>
       </c>
       <c r="AA39" t="n">
-        <v>4140</v>
+        <v>1380</v>
       </c>
       <c r="AB39" t="n">
         <v>0</v>
@@ -5888,7 +5896,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>6492GLAM</t>
+          <t>12ZCOCXX</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -5937,26 +5945,26 @@
         </is>
       </c>
       <c r="M40" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="N40" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="O40" t="n">
         <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="S40" t="inlineStr">
         <is>
-          <t>AVP1</t>
+          <t>TEB9</t>
         </is>
       </c>
       <c r="T40" s="2" t="n">
@@ -5977,13 +5985,13 @@
         </is>
       </c>
       <c r="Y40" t="n">
-        <v>4140</v>
+        <v>2760</v>
       </c>
       <c r="Z40" t="n">
-        <v>4140</v>
+        <v>2760</v>
       </c>
       <c r="AA40" t="n">
-        <v>3588</v>
+        <v>2760</v>
       </c>
       <c r="AB40" t="n">
         <v>0</v>
@@ -6122,7 +6130,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>627CL55Y</t>
+          <t>4H8GT6MF</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -6239,7 +6247,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>62CGP13H</t>
+          <t>7SUIURVP</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -6307,7 +6315,7 @@
       </c>
       <c r="S43" t="inlineStr">
         <is>
-          <t>IND9</t>
+          <t>MEM1</t>
         </is>
       </c>
       <c r="T43" s="2" t="n">
@@ -6356,7 +6364,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>7THEHK5M</t>
+          <t>627CL55Y</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -6424,7 +6432,7 @@
       </c>
       <c r="S44" t="inlineStr">
         <is>
-          <t>MEM1</t>
+          <t>IND9</t>
         </is>
       </c>
       <c r="T44" s="2" t="n">
@@ -6473,7 +6481,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>7SUIURVP</t>
+          <t>62CGP13H</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -6541,7 +6549,7 @@
       </c>
       <c r="S45" t="inlineStr">
         <is>
-          <t>MEM1</t>
+          <t>IND9</t>
         </is>
       </c>
       <c r="T45" s="2" t="n">
@@ -6590,7 +6598,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>4H8GT6MF</t>
+          <t>7THEHK5M</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -6658,7 +6666,7 @@
       </c>
       <c r="S46" t="inlineStr">
         <is>
-          <t>IND9</t>
+          <t>MEM1</t>
         </is>
       </c>
       <c r="T46" s="2" t="n">
@@ -7058,7 +7066,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>6C9MNWXB</t>
+          <t>77PALM2O</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -7107,19 +7115,19 @@
         </is>
       </c>
       <c r="M50" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="N50" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="O50" t="n">
         <v>0</v>
       </c>
       <c r="P50" t="n">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="Q50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R50" t="n">
         <v>0</v>
@@ -7147,19 +7155,19 @@
         </is>
       </c>
       <c r="Y50" t="n">
-        <v>1380</v>
+        <v>4140</v>
       </c>
       <c r="Z50" t="n">
-        <v>1380</v>
+        <v>4140</v>
       </c>
       <c r="AA50" t="n">
-        <v>1242</v>
+        <v>4140</v>
       </c>
       <c r="AB50" t="n">
-        <v>138</v>
+        <v>0</v>
       </c>
       <c r="AC50" s="2" t="n">
-        <v>45118</v>
+        <v>45115</v>
       </c>
       <c r="AD50" t="inlineStr">
         <is>
@@ -7175,7 +7183,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>77PALM2O</t>
+          <t>7PFVW2FC</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -7224,16 +7232,16 @@
         </is>
       </c>
       <c r="M51" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="N51" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="O51" t="n">
         <v>0</v>
       </c>
       <c r="P51" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="Q51" t="n">
         <v>0</v>
@@ -7243,7 +7251,7 @@
       </c>
       <c r="S51" t="inlineStr">
         <is>
-          <t>ONT8</t>
+          <t>GYR3</t>
         </is>
       </c>
       <c r="T51" s="2" t="n">
@@ -7264,19 +7272,19 @@
         </is>
       </c>
       <c r="Y51" t="n">
-        <v>4140</v>
+        <v>1380</v>
       </c>
       <c r="Z51" t="n">
-        <v>4140</v>
+        <v>1380</v>
       </c>
       <c r="AA51" t="n">
-        <v>4140</v>
+        <v>1380</v>
       </c>
       <c r="AB51" t="n">
         <v>0</v>
       </c>
       <c r="AC51" s="2" t="n">
-        <v>45115</v>
+        <v>45118</v>
       </c>
       <c r="AD51" t="inlineStr">
         <is>
@@ -7292,7 +7300,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>7PFVW2FC</t>
+          <t>6C9MNWXB</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -7350,17 +7358,17 @@
         <v>0</v>
       </c>
       <c r="P52" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Q52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R52" t="n">
         <v>0</v>
       </c>
       <c r="S52" t="inlineStr">
         <is>
-          <t>GYR3</t>
+          <t>ONT8</t>
         </is>
       </c>
       <c r="T52" s="2" t="n">
@@ -7387,10 +7395,10 @@
         <v>1380</v>
       </c>
       <c r="AA52" t="n">
-        <v>1380</v>
+        <v>1242</v>
       </c>
       <c r="AB52" t="n">
-        <v>0</v>
+        <v>138</v>
       </c>
       <c r="AC52" s="2" t="n">
         <v>45118</v>
@@ -7526,7 +7534,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>86F3MF6J</t>
+          <t>34ON72AT</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -7575,16 +7583,16 @@
         </is>
       </c>
       <c r="M54" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="N54" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="O54" t="n">
         <v>0</v>
       </c>
       <c r="P54" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="Q54" t="n">
         <v>0</v>
@@ -7594,7 +7602,7 @@
       </c>
       <c r="S54" t="inlineStr">
         <is>
-          <t>GYR3</t>
+          <t>ONT8</t>
         </is>
       </c>
       <c r="T54" s="2" t="n">
@@ -7615,13 +7623,13 @@
         </is>
       </c>
       <c r="Y54" t="n">
-        <v>2760</v>
+        <v>4140</v>
       </c>
       <c r="Z54" t="n">
-        <v>2760</v>
+        <v>4140</v>
       </c>
       <c r="AA54" t="n">
-        <v>2760</v>
+        <v>4140</v>
       </c>
       <c r="AB54" t="n">
         <v>0</v>
@@ -7643,7 +7651,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>34ON72AT</t>
+          <t>86F3MF6J</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -7692,16 +7700,16 @@
         </is>
       </c>
       <c r="M55" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="N55" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="O55" t="n">
         <v>0</v>
       </c>
       <c r="P55" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="Q55" t="n">
         <v>0</v>
@@ -7711,7 +7719,7 @@
       </c>
       <c r="S55" t="inlineStr">
         <is>
-          <t>ONT8</t>
+          <t>GYR3</t>
         </is>
       </c>
       <c r="T55" s="2" t="n">
@@ -7732,13 +7740,13 @@
         </is>
       </c>
       <c r="Y55" t="n">
-        <v>4140</v>
+        <v>2760</v>
       </c>
       <c r="Z55" t="n">
-        <v>4140</v>
+        <v>2760</v>
       </c>
       <c r="AA55" t="n">
-        <v>4140</v>
+        <v>2760</v>
       </c>
       <c r="AB55" t="n">
         <v>0</v>
@@ -7760,7 +7768,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>2NQOIX3S</t>
+          <t>46QHOFDI</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -7809,16 +7817,16 @@
         </is>
       </c>
       <c r="M56" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="N56" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="O56" t="n">
         <v>0</v>
       </c>
       <c r="P56" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="Q56" t="n">
         <v>0</v>
@@ -7828,7 +7836,7 @@
       </c>
       <c r="S56" t="inlineStr">
         <is>
-          <t>LAX9</t>
+          <t>GYR2</t>
         </is>
       </c>
       <c r="T56" s="2" t="n">
@@ -7849,13 +7857,13 @@
         </is>
       </c>
       <c r="Y56" t="n">
-        <v>1380</v>
+        <v>2760</v>
       </c>
       <c r="Z56" t="n">
-        <v>1380</v>
+        <v>2760</v>
       </c>
       <c r="AA56" t="n">
-        <v>4140</v>
+        <v>2760</v>
       </c>
       <c r="AB56" t="n">
         <v>0</v>
@@ -7994,7 +8002,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>46QHOFDI</t>
+          <t>2NQOIX3S</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -8043,16 +8051,16 @@
         </is>
       </c>
       <c r="M58" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="N58" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="O58" t="n">
         <v>0</v>
       </c>
       <c r="P58" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="Q58" t="n">
         <v>0</v>
@@ -8062,7 +8070,7 @@
       </c>
       <c r="S58" t="inlineStr">
         <is>
-          <t>GYR2</t>
+          <t>LAX9</t>
         </is>
       </c>
       <c r="T58" s="2" t="n">
@@ -8083,13 +8091,13 @@
         </is>
       </c>
       <c r="Y58" t="n">
-        <v>2760</v>
+        <v>1380</v>
       </c>
       <c r="Z58" t="n">
-        <v>2760</v>
+        <v>1380</v>
       </c>
       <c r="AA58" t="n">
-        <v>2760</v>
+        <v>4140</v>
       </c>
       <c r="AB58" t="n">
         <v>0</v>
@@ -8228,7 +8236,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>379PR7XC</t>
+          <t>1DRT96BM</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -8296,7 +8304,7 @@
       </c>
       <c r="S60" t="inlineStr">
         <is>
-          <t>GYR3</t>
+          <t>LAS1</t>
         </is>
       </c>
       <c r="T60" s="2" t="n">
@@ -8345,7 +8353,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>1DRT96BM</t>
+          <t>379PR7XC</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -8413,7 +8421,7 @@
       </c>
       <c r="S61" t="inlineStr">
         <is>
-          <t>LAS1</t>
+          <t>GYR3</t>
         </is>
       </c>
       <c r="T61" s="2" t="n">
@@ -8462,7 +8470,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>1ZOY81CH</t>
+          <t>1KAC4KKL</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -8520,17 +8528,17 @@
         <v>0</v>
       </c>
       <c r="P62" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="Q62" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="R62" t="n">
         <v>0</v>
       </c>
       <c r="S62" t="inlineStr">
         <is>
-          <t>LAX9</t>
+          <t>GYR3</t>
         </is>
       </c>
       <c r="T62" s="2" t="n">
@@ -8557,10 +8565,10 @@
         <v>2760</v>
       </c>
       <c r="AA62" t="n">
-        <v>0</v>
+        <v>2898</v>
       </c>
       <c r="AB62" t="n">
-        <v>2760</v>
+        <v>0</v>
       </c>
       <c r="AC62" s="2" t="n">
         <v>45153</v>
@@ -8579,7 +8587,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>3XE5SQLI</t>
+          <t>1ZOY81CH</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -8628,26 +8636,26 @@
         </is>
       </c>
       <c r="M63" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="N63" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="O63" t="n">
         <v>0</v>
       </c>
       <c r="P63" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q63" t="n">
         <v>20</v>
       </c>
-      <c r="Q63" t="n">
-        <v>10</v>
-      </c>
       <c r="R63" t="n">
         <v>0</v>
       </c>
       <c r="S63" t="inlineStr">
         <is>
-          <t>LGB8</t>
+          <t>LAX9</t>
         </is>
       </c>
       <c r="T63" s="2" t="n">
@@ -8668,16 +8676,16 @@
         </is>
       </c>
       <c r="Y63" t="n">
-        <v>4140</v>
+        <v>2760</v>
       </c>
       <c r="Z63" t="n">
-        <v>4140</v>
+        <v>2760</v>
       </c>
       <c r="AA63" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB63" t="n">
         <v>2760</v>
-      </c>
-      <c r="AB63" t="n">
-        <v>1380</v>
       </c>
       <c r="AC63" s="2" t="n">
         <v>45153</v>
@@ -8696,7 +8704,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>1KAC4KKL</t>
+          <t>3XE5SQLI</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -8745,26 +8753,26 @@
         </is>
       </c>
       <c r="M64" t="n">
+        <v>30</v>
+      </c>
+      <c r="N64" t="n">
+        <v>30</v>
+      </c>
+      <c r="O64" t="n">
+        <v>0</v>
+      </c>
+      <c r="P64" t="n">
         <v>20</v>
       </c>
-      <c r="N64" t="n">
-        <v>20</v>
-      </c>
-      <c r="O64" t="n">
-        <v>0</v>
-      </c>
-      <c r="P64" t="n">
-        <v>21</v>
-      </c>
       <c r="Q64" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="R64" t="n">
         <v>0</v>
       </c>
       <c r="S64" t="inlineStr">
         <is>
-          <t>GYR3</t>
+          <t>LGB8</t>
         </is>
       </c>
       <c r="T64" s="2" t="n">
@@ -8785,16 +8793,16 @@
         </is>
       </c>
       <c r="Y64" t="n">
+        <v>4140</v>
+      </c>
+      <c r="Z64" t="n">
+        <v>4140</v>
+      </c>
+      <c r="AA64" t="n">
         <v>2760</v>
       </c>
-      <c r="Z64" t="n">
-        <v>2760</v>
-      </c>
-      <c r="AA64" t="n">
-        <v>2898</v>
-      </c>
       <c r="AB64" t="n">
-        <v>0</v>
+        <v>1380</v>
       </c>
       <c r="AC64" s="2" t="n">
         <v>45153</v>
@@ -8813,7 +8821,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>7GNF67EU</t>
+          <t>7P58G3HL</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -8862,16 +8870,16 @@
         </is>
       </c>
       <c r="M65" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="N65" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="O65" t="n">
         <v>0</v>
       </c>
       <c r="P65" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="Q65" t="n">
         <v>0</v>
@@ -8881,7 +8889,7 @@
       </c>
       <c r="S65" t="inlineStr">
         <is>
-          <t>ONT8</t>
+          <t>GYR3</t>
         </is>
       </c>
       <c r="T65" s="2" t="n">
@@ -8902,13 +8910,13 @@
         </is>
       </c>
       <c r="Y65" t="n">
-        <v>5520</v>
+        <v>2760</v>
       </c>
       <c r="Z65" t="n">
-        <v>5520</v>
+        <v>2760</v>
       </c>
       <c r="AA65" t="n">
-        <v>5520</v>
+        <v>2760</v>
       </c>
       <c r="AB65" t="n">
         <v>0</v>
@@ -8930,7 +8938,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>3GIPHJQX</t>
+          <t>7GNF67EU</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -8988,7 +8996,7 @@
         <v>0</v>
       </c>
       <c r="P66" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="Q66" t="n">
         <v>0</v>
@@ -8998,7 +9006,7 @@
       </c>
       <c r="S66" t="inlineStr">
         <is>
-          <t>LAX9</t>
+          <t>ONT8</t>
         </is>
       </c>
       <c r="T66" s="2" t="n">
@@ -9025,7 +9033,7 @@
         <v>5520</v>
       </c>
       <c r="AA66" t="n">
-        <v>6900</v>
+        <v>5520</v>
       </c>
       <c r="AB66" t="n">
         <v>0</v>
@@ -9047,7 +9055,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>7P58G3HL</t>
+          <t>3GIPHJQX</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -9096,16 +9104,16 @@
         </is>
       </c>
       <c r="M67" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="N67" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="O67" t="n">
         <v>0</v>
       </c>
       <c r="P67" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="Q67" t="n">
         <v>0</v>
@@ -9115,7 +9123,7 @@
       </c>
       <c r="S67" t="inlineStr">
         <is>
-          <t>GYR3</t>
+          <t>LAX9</t>
         </is>
       </c>
       <c r="T67" s="2" t="n">
@@ -9136,13 +9144,13 @@
         </is>
       </c>
       <c r="Y67" t="n">
-        <v>2760</v>
+        <v>5520</v>
       </c>
       <c r="Z67" t="n">
-        <v>2760</v>
+        <v>5520</v>
       </c>
       <c r="AA67" t="n">
-        <v>2760</v>
+        <v>6900</v>
       </c>
       <c r="AB67" t="n">
         <v>0</v>
@@ -9164,7 +9172,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>3OLJ8A5W</t>
+          <t>66WMG58O</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -9281,7 +9289,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>66WMG58O</t>
+          <t>3OLJ8A5W</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -9515,7 +9523,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>7S9PEFTC</t>
+          <t>59GVR4RI</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -9564,26 +9572,26 @@
         </is>
       </c>
       <c r="M71" t="n">
-        <v>90</v>
+        <v>160</v>
       </c>
       <c r="N71" t="n">
-        <v>90</v>
+        <v>160</v>
       </c>
       <c r="O71" t="n">
         <v>0</v>
       </c>
       <c r="P71" t="n">
-        <v>89</v>
+        <v>152</v>
       </c>
       <c r="Q71" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="R71" t="n">
         <v>0</v>
       </c>
       <c r="S71" t="inlineStr">
         <is>
-          <t>LAX9</t>
+          <t>LGB8</t>
         </is>
       </c>
       <c r="T71" s="2" t="n">
@@ -9604,16 +9612,16 @@
         </is>
       </c>
       <c r="Y71" t="n">
-        <v>12420</v>
+        <v>22080</v>
       </c>
       <c r="Z71" t="n">
-        <v>12420</v>
+        <v>22080</v>
       </c>
       <c r="AA71" t="n">
-        <v>12282</v>
+        <v>20976</v>
       </c>
       <c r="AB71" t="n">
-        <v>276</v>
+        <v>1104</v>
       </c>
       <c r="AC71" s="2" t="n">
         <v>45188</v>
@@ -9632,7 +9640,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>55RDJW2E</t>
+          <t>7S9PEFTC</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -9681,26 +9689,26 @@
         </is>
       </c>
       <c r="M72" t="n">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="N72" t="n">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="O72" t="n">
         <v>0</v>
       </c>
       <c r="P72" t="n">
-        <v>49</v>
+        <v>89</v>
       </c>
       <c r="Q72" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R72" t="n">
         <v>0</v>
       </c>
       <c r="S72" t="inlineStr">
         <is>
-          <t>ONT8</t>
+          <t>LAX9</t>
         </is>
       </c>
       <c r="T72" s="2" t="n">
@@ -9721,16 +9729,16 @@
         </is>
       </c>
       <c r="Y72" t="n">
-        <v>6900</v>
+        <v>12420</v>
       </c>
       <c r="Z72" t="n">
-        <v>6900</v>
+        <v>12420</v>
       </c>
       <c r="AA72" t="n">
-        <v>6762</v>
+        <v>12282</v>
       </c>
       <c r="AB72" t="n">
-        <v>138</v>
+        <v>276</v>
       </c>
       <c r="AC72" s="2" t="n">
         <v>45188</v>
@@ -9749,7 +9757,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>59GVR4RI</t>
+          <t>55RDJW2E</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -9798,26 +9806,26 @@
         </is>
       </c>
       <c r="M73" t="n">
-        <v>160</v>
+        <v>50</v>
       </c>
       <c r="N73" t="n">
-        <v>160</v>
+        <v>50</v>
       </c>
       <c r="O73" t="n">
         <v>0</v>
       </c>
       <c r="P73" t="n">
-        <v>152</v>
+        <v>49</v>
       </c>
       <c r="Q73" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="R73" t="n">
         <v>0</v>
       </c>
       <c r="S73" t="inlineStr">
         <is>
-          <t>LGB8</t>
+          <t>ONT8</t>
         </is>
       </c>
       <c r="T73" s="2" t="n">
@@ -9838,16 +9846,16 @@
         </is>
       </c>
       <c r="Y73" t="n">
-        <v>22080</v>
+        <v>6900</v>
       </c>
       <c r="Z73" t="n">
-        <v>22080</v>
+        <v>6900</v>
       </c>
       <c r="AA73" t="n">
-        <v>20976</v>
+        <v>6762</v>
       </c>
       <c r="AB73" t="n">
-        <v>1104</v>
+        <v>138</v>
       </c>
       <c r="AC73" s="2" t="n">
         <v>45188</v>
@@ -9866,7 +9874,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>3CE6QAIP</t>
+          <t>6BNNY4JV</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -9915,26 +9923,26 @@
         </is>
       </c>
       <c r="M74" t="n">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="N74" t="n">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="O74" t="n">
         <v>0</v>
       </c>
       <c r="P74" t="n">
-        <v>100</v>
+        <v>29</v>
       </c>
       <c r="Q74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R74" t="n">
         <v>0</v>
       </c>
       <c r="S74" t="inlineStr">
         <is>
-          <t>LAX9</t>
+          <t>ONT8</t>
         </is>
       </c>
       <c r="T74" s="2" t="n">
@@ -9955,16 +9963,16 @@
         </is>
       </c>
       <c r="Y74" t="n">
-        <v>13800</v>
+        <v>4140</v>
       </c>
       <c r="Z74" t="n">
-        <v>13800</v>
+        <v>4140</v>
       </c>
       <c r="AA74" t="n">
-        <v>13800</v>
+        <v>4002</v>
       </c>
       <c r="AB74" t="n">
-        <v>0</v>
+        <v>138</v>
       </c>
       <c r="AC74" s="2" t="n">
         <v>45195</v>
@@ -9983,7 +9991,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>6BNNY4JV</t>
+          <t>3CE6QAIP</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -10032,26 +10040,26 @@
         </is>
       </c>
       <c r="M75" t="n">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="N75" t="n">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="O75" t="n">
         <v>0</v>
       </c>
       <c r="P75" t="n">
-        <v>29</v>
+        <v>100</v>
       </c>
       <c r="Q75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R75" t="n">
         <v>0</v>
       </c>
       <c r="S75" t="inlineStr">
         <is>
-          <t>ONT8</t>
+          <t>LAX9</t>
         </is>
       </c>
       <c r="T75" s="2" t="n">
@@ -10072,16 +10080,16 @@
         </is>
       </c>
       <c r="Y75" t="n">
-        <v>4140</v>
+        <v>13800</v>
       </c>
       <c r="Z75" t="n">
-        <v>4140</v>
+        <v>13800</v>
       </c>
       <c r="AA75" t="n">
-        <v>4002</v>
+        <v>13800</v>
       </c>
       <c r="AB75" t="n">
-        <v>138</v>
+        <v>0</v>
       </c>
       <c r="AC75" s="2" t="n">
         <v>45195</v>
@@ -10217,7 +10225,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>44NJRHWE</t>
+          <t>7S18BF8X</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -10285,7 +10293,7 @@
       </c>
       <c r="S77" t="inlineStr">
         <is>
-          <t>PHX6</t>
+          <t>GYR3</t>
         </is>
       </c>
       <c r="T77" s="2" t="n">
@@ -10334,7 +10342,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>4PMGOA9T</t>
+          <t>44NJRHWE</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -10402,7 +10410,7 @@
       </c>
       <c r="S78" t="inlineStr">
         <is>
-          <t>HEA2</t>
+          <t>PHX6</t>
         </is>
       </c>
       <c r="T78" s="2" t="n">
@@ -10451,7 +10459,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>7S18BF8X</t>
+          <t>4PMGOA9T</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -10519,7 +10527,7 @@
       </c>
       <c r="S79" t="inlineStr">
         <is>
-          <t>GYR3</t>
+          <t>HEA2</t>
         </is>
       </c>
       <c r="T79" s="2" t="n">
@@ -11148,357 +11156,6 @@
       <c r="AF84" t="inlineStr"/>
       <c r="AG84" t="n">
         <v>83</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="inlineStr">
-        <is>
-          <t>63ZWXWMM</t>
-        </is>
-      </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>GIGF7</t>
-        </is>
-      </c>
-      <c r="C85" s="2" t="n">
-        <v>45364</v>
-      </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>Closed</t>
-        </is>
-      </c>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>Gigabyte GIGABYTE B550M AORUS Elite (AM4/ AMD/ B550/ Micro-ATX/ DDR4/ Dual M.2/ PCIe 4.0/ Realtek GbE LAN/Gaming Motherboard)</t>
-        </is>
-      </c>
-      <c r="F85" t="inlineStr">
-        <is>
-          <t>B08BR1XDX5</t>
-        </is>
-      </c>
-      <c r="G85" t="inlineStr">
-        <is>
-          <t>SKU</t>
-        </is>
-      </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>B550M AORUS ELITE</t>
-        </is>
-      </c>
-      <c r="I85" t="inlineStr">
-        <is>
-          <t>B550M AORUS ELITE</t>
-        </is>
-      </c>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>IR - Cancelled: Temporarily out of stock</t>
-        </is>
-      </c>
-      <c r="M85" t="n">
-        <v>10</v>
-      </c>
-      <c r="N85" t="n">
-        <v>0</v>
-      </c>
-      <c r="O85" t="n">
-        <v>0</v>
-      </c>
-      <c r="P85" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q85" t="n">
-        <v>0</v>
-      </c>
-      <c r="R85" t="n">
-        <v>0</v>
-      </c>
-      <c r="S85" t="inlineStr">
-        <is>
-          <t>ONT8</t>
-        </is>
-      </c>
-      <c r="T85" s="2" t="n">
-        <v>45364</v>
-      </c>
-      <c r="U85" s="2" t="n">
-        <v>45369</v>
-      </c>
-      <c r="V85" t="n">
-        <v>1</v>
-      </c>
-      <c r="W85" t="n">
-        <v>138</v>
-      </c>
-      <c r="X85" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="Y85" t="n">
-        <v>1380</v>
-      </c>
-      <c r="Z85" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA85" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB85" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC85" s="2" t="n">
-        <v>45364</v>
-      </c>
-      <c r="AD85" t="inlineStr">
-        <is>
-          <t>Collect</t>
-        </is>
-      </c>
-      <c r="AE85" t="inlineStr"/>
-      <c r="AF85" t="inlineStr"/>
-      <c r="AG85" t="n">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="inlineStr">
-        <is>
-          <t>6QTLGSTQ</t>
-        </is>
-      </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>GIGF7</t>
-        </is>
-      </c>
-      <c r="C86" s="2" t="n">
-        <v>45364</v>
-      </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>Closed</t>
-        </is>
-      </c>
-      <c r="E86" t="inlineStr">
-        <is>
-          <t>Gigabyte GIGABYTE B550M AORUS Elite (AM4/ AMD/ B550/ Micro-ATX/ DDR4/ Dual M.2/ PCIe 4.0/ Realtek GbE LAN/Gaming Motherboard)</t>
-        </is>
-      </c>
-      <c r="F86" t="inlineStr">
-        <is>
-          <t>B08BR1XDX5</t>
-        </is>
-      </c>
-      <c r="G86" t="inlineStr">
-        <is>
-          <t>SKU</t>
-        </is>
-      </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>B550M AORUS ELITE</t>
-        </is>
-      </c>
-      <c r="I86" t="inlineStr">
-        <is>
-          <t>B550M AORUS ELITE</t>
-        </is>
-      </c>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>IR - Cancelled: Temporarily out of stock</t>
-        </is>
-      </c>
-      <c r="M86" t="n">
-        <v>10</v>
-      </c>
-      <c r="N86" t="n">
-        <v>0</v>
-      </c>
-      <c r="O86" t="n">
-        <v>0</v>
-      </c>
-      <c r="P86" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q86" t="n">
-        <v>0</v>
-      </c>
-      <c r="R86" t="n">
-        <v>0</v>
-      </c>
-      <c r="S86" t="inlineStr">
-        <is>
-          <t>GYR3</t>
-        </is>
-      </c>
-      <c r="T86" s="2" t="n">
-        <v>45364</v>
-      </c>
-      <c r="U86" s="2" t="n">
-        <v>45369</v>
-      </c>
-      <c r="V86" t="n">
-        <v>1</v>
-      </c>
-      <c r="W86" t="n">
-        <v>138</v>
-      </c>
-      <c r="X86" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="Y86" t="n">
-        <v>1380</v>
-      </c>
-      <c r="Z86" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA86" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB86" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC86" s="2" t="n">
-        <v>45364</v>
-      </c>
-      <c r="AD86" t="inlineStr">
-        <is>
-          <t>Collect</t>
-        </is>
-      </c>
-      <c r="AE86" t="inlineStr"/>
-      <c r="AF86" t="inlineStr"/>
-      <c r="AG86" t="n">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="inlineStr">
-        <is>
-          <t>3SFP4VCP</t>
-        </is>
-      </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>GIGF7</t>
-        </is>
-      </c>
-      <c r="C87" s="2" t="n">
-        <v>45364</v>
-      </c>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>Closed</t>
-        </is>
-      </c>
-      <c r="E87" t="inlineStr">
-        <is>
-          <t>Gigabyte GIGABYTE B550M AORUS Elite (AM4/ AMD/ B550/ Micro-ATX/ DDR4/ Dual M.2/ PCIe 4.0/ Realtek GbE LAN/Gaming Motherboard)</t>
-        </is>
-      </c>
-      <c r="F87" t="inlineStr">
-        <is>
-          <t>B08BR1XDX5</t>
-        </is>
-      </c>
-      <c r="G87" t="inlineStr">
-        <is>
-          <t>SKU</t>
-        </is>
-      </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>B550M AORUS ELITE</t>
-        </is>
-      </c>
-      <c r="I87" t="inlineStr">
-        <is>
-          <t>B550M AORUS ELITE</t>
-        </is>
-      </c>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>IR - Cancelled: Temporarily out of stock</t>
-        </is>
-      </c>
-      <c r="M87" t="n">
-        <v>10</v>
-      </c>
-      <c r="N87" t="n">
-        <v>0</v>
-      </c>
-      <c r="O87" t="n">
-        <v>0</v>
-      </c>
-      <c r="P87" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q87" t="n">
-        <v>0</v>
-      </c>
-      <c r="R87" t="n">
-        <v>0</v>
-      </c>
-      <c r="S87" t="inlineStr">
-        <is>
-          <t>SBD1</t>
-        </is>
-      </c>
-      <c r="T87" s="2" t="n">
-        <v>45364</v>
-      </c>
-      <c r="U87" s="2" t="n">
-        <v>45369</v>
-      </c>
-      <c r="V87" t="n">
-        <v>1</v>
-      </c>
-      <c r="W87" t="n">
-        <v>138</v>
-      </c>
-      <c r="X87" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
-      <c r="Y87" t="n">
-        <v>1380</v>
-      </c>
-      <c r="Z87" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA87" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB87" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC87" s="2" t="n">
-        <v>45364</v>
-      </c>
-      <c r="AD87" t="inlineStr">
-        <is>
-          <t>Collect</t>
-        </is>
-      </c>
-      <c r="AE87" t="inlineStr"/>
-      <c r="AF87" t="inlineStr"/>
-      <c r="AG87" t="n">
-        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -11512,7 +11169,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C187"/>
+  <dimension ref="A1:C185"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11589,7 +11246,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7">
@@ -11600,7 +11257,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8">
@@ -11622,7 +11279,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>10</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10">
@@ -11633,7 +11290,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11">
@@ -11644,7 +11301,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12">
@@ -11655,7 +11312,7 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13">
@@ -11677,7 +11334,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15">
@@ -11688,7 +11345,7 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16">
@@ -11699,7 +11356,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17">
@@ -11710,7 +11367,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18">
@@ -11732,7 +11389,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20">
@@ -12084,7 +11741,7 @@
         <v>0</v>
       </c>
       <c r="C51" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
     </row>
     <row r="52">
@@ -12095,7 +11752,7 @@
         <v>0</v>
       </c>
       <c r="C52" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="53">
@@ -12106,7 +11763,7 @@
         <v>0</v>
       </c>
       <c r="C53" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
     </row>
     <row r="54">
@@ -12128,7 +11785,7 @@
         <v>0</v>
       </c>
       <c r="C55" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="56">
@@ -12139,7 +11796,7 @@
         <v>0</v>
       </c>
       <c r="C56" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
     </row>
     <row r="57">
@@ -12150,7 +11807,7 @@
         <v>0</v>
       </c>
       <c r="C57" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="58">
@@ -12161,7 +11818,7 @@
         <v>0</v>
       </c>
       <c r="C58" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
     </row>
     <row r="59">
@@ -12183,7 +11840,7 @@
         <v>0</v>
       </c>
       <c r="C60" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="61">
@@ -12194,7 +11851,7 @@
         <v>0</v>
       </c>
       <c r="C61" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="62">
@@ -12205,7 +11862,7 @@
         <v>0</v>
       </c>
       <c r="C62" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
     <row r="63">
@@ -12348,7 +12005,7 @@
         <v>0</v>
       </c>
       <c r="C75" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
     <row r="76">
@@ -12359,7 +12016,7 @@
         <v>0</v>
       </c>
       <c r="C76" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
     </row>
     <row r="77">
@@ -12414,7 +12071,7 @@
         <v>0</v>
       </c>
       <c r="C81" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="82">
@@ -12425,7 +12082,7 @@
         <v>0</v>
       </c>
       <c r="C82" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="83">
@@ -12447,7 +12104,7 @@
         <v>0</v>
       </c>
       <c r="C84" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="85">
@@ -12469,7 +12126,7 @@
         <v>0</v>
       </c>
       <c r="C86" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="87">
@@ -12579,7 +12236,7 @@
         <v>0</v>
       </c>
       <c r="C96" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="97">
@@ -12601,7 +12258,7 @@
         <v>0</v>
       </c>
       <c r="C98" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="99">
@@ -12689,7 +12346,7 @@
         <v>0</v>
       </c>
       <c r="C106" t="n">
-        <v>90</v>
+        <v>160</v>
       </c>
     </row>
     <row r="107">
@@ -12700,7 +12357,7 @@
         <v>0</v>
       </c>
       <c r="C107" t="n">
-        <v>50</v>
+        <v>90</v>
       </c>
     </row>
     <row r="108">
@@ -12711,7 +12368,7 @@
         <v>0</v>
       </c>
       <c r="C108" t="n">
-        <v>160</v>
+        <v>50</v>
       </c>
     </row>
     <row r="109">
@@ -12733,7 +12390,7 @@
         <v>0</v>
       </c>
       <c r="C110" t="n">
-        <v>100</v>
+        <v>30</v>
       </c>
     </row>
     <row r="111">
@@ -12744,7 +12401,7 @@
         <v>0</v>
       </c>
       <c r="C111" t="n">
-        <v>30</v>
+        <v>100</v>
       </c>
     </row>
     <row r="112">
@@ -13101,40 +12758,40 @@
     </row>
     <row r="144">
       <c r="A144" s="2" t="n">
-        <v>45364</v>
+        <v>45368.99999999999</v>
       </c>
       <c r="B144" t="n">
         <v>0</v>
       </c>
       <c r="C144" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="n">
-        <v>45364</v>
+        <v>45375.99999999999</v>
       </c>
       <c r="B145" t="n">
         <v>0</v>
       </c>
       <c r="C145" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="n">
-        <v>45364</v>
+        <v>45382.99999999999</v>
       </c>
       <c r="B146" t="n">
         <v>0</v>
       </c>
       <c r="C146" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="n">
-        <v>45368.99999999999</v>
+        <v>45396.99999999999</v>
       </c>
       <c r="B147" t="n">
         <v>0</v>
@@ -13145,7 +12802,7 @@
     </row>
     <row r="148">
       <c r="A148" s="2" t="n">
-        <v>45375.99999999999</v>
+        <v>45403.99999999999</v>
       </c>
       <c r="B148" t="n">
         <v>0</v>
@@ -13156,7 +12813,7 @@
     </row>
     <row r="149">
       <c r="A149" s="2" t="n">
-        <v>45382.99999999999</v>
+        <v>45410.99999999999</v>
       </c>
       <c r="B149" t="n">
         <v>0</v>
@@ -13167,7 +12824,7 @@
     </row>
     <row r="150">
       <c r="A150" s="2" t="n">
-        <v>45396.99999999999</v>
+        <v>45417.99999999999</v>
       </c>
       <c r="B150" t="n">
         <v>0</v>
@@ -13178,7 +12835,7 @@
     </row>
     <row r="151">
       <c r="A151" s="2" t="n">
-        <v>45403.99999999999</v>
+        <v>45424.99999999999</v>
       </c>
       <c r="B151" t="n">
         <v>0</v>
@@ -13189,7 +12846,7 @@
     </row>
     <row r="152">
       <c r="A152" s="2" t="n">
-        <v>45410.99999999999</v>
+        <v>45431.99999999999</v>
       </c>
       <c r="B152" t="n">
         <v>0</v>
@@ -13200,7 +12857,7 @@
     </row>
     <row r="153">
       <c r="A153" s="2" t="n">
-        <v>45417.99999999999</v>
+        <v>45438.99999999999</v>
       </c>
       <c r="B153" t="n">
         <v>0</v>
@@ -13211,7 +12868,7 @@
     </row>
     <row r="154">
       <c r="A154" s="2" t="n">
-        <v>45424.99999999999</v>
+        <v>45445.99999999999</v>
       </c>
       <c r="B154" t="n">
         <v>0</v>
@@ -13222,7 +12879,7 @@
     </row>
     <row r="155">
       <c r="A155" s="2" t="n">
-        <v>45431.99999999999</v>
+        <v>45452.99999999999</v>
       </c>
       <c r="B155" t="n">
         <v>0</v>
@@ -13233,7 +12890,7 @@
     </row>
     <row r="156">
       <c r="A156" s="2" t="n">
-        <v>45438.99999999999</v>
+        <v>45459.99999999999</v>
       </c>
       <c r="B156" t="n">
         <v>0</v>
@@ -13244,7 +12901,7 @@
     </row>
     <row r="157">
       <c r="A157" s="2" t="n">
-        <v>45445.99999999999</v>
+        <v>45466.99999999999</v>
       </c>
       <c r="B157" t="n">
         <v>0</v>
@@ -13255,7 +12912,7 @@
     </row>
     <row r="158">
       <c r="A158" s="2" t="n">
-        <v>45452.99999999999</v>
+        <v>45473.99999999999</v>
       </c>
       <c r="B158" t="n">
         <v>0</v>
@@ -13266,10 +12923,10 @@
     </row>
     <row r="159">
       <c r="A159" s="2" t="n">
-        <v>45459.99999999999</v>
+        <v>45480.99999999999</v>
       </c>
       <c r="B159" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C159" t="n">
         <v>0</v>
@@ -13277,10 +12934,10 @@
     </row>
     <row r="160">
       <c r="A160" s="2" t="n">
-        <v>45466.99999999999</v>
+        <v>45487.99999999999</v>
       </c>
       <c r="B160" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C160" t="n">
         <v>0</v>
@@ -13288,10 +12945,10 @@
     </row>
     <row r="161">
       <c r="A161" s="2" t="n">
-        <v>45473.99999999999</v>
+        <v>45494.99999999999</v>
       </c>
       <c r="B161" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C161" t="n">
         <v>0</v>
@@ -13299,10 +12956,10 @@
     </row>
     <row r="162">
       <c r="A162" s="2" t="n">
-        <v>45480.99999999999</v>
+        <v>45501.99999999999</v>
       </c>
       <c r="B162" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C162" t="n">
         <v>0</v>
@@ -13310,10 +12967,10 @@
     </row>
     <row r="163">
       <c r="A163" s="2" t="n">
-        <v>45487.99999999999</v>
+        <v>45508.99999999999</v>
       </c>
       <c r="B163" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C163" t="n">
         <v>0</v>
@@ -13321,10 +12978,10 @@
     </row>
     <row r="164">
       <c r="A164" s="2" t="n">
-        <v>45494.99999999999</v>
+        <v>45515.99999999999</v>
       </c>
       <c r="B164" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C164" t="n">
         <v>0</v>
@@ -13332,10 +12989,10 @@
     </row>
     <row r="165">
       <c r="A165" s="2" t="n">
-        <v>45501.99999999999</v>
+        <v>45522.99999999999</v>
       </c>
       <c r="B165" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C165" t="n">
         <v>0</v>
@@ -13343,10 +13000,10 @@
     </row>
     <row r="166">
       <c r="A166" s="2" t="n">
-        <v>45508.99999999999</v>
+        <v>45529.99999999999</v>
       </c>
       <c r="B166" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C166" t="n">
         <v>0</v>
@@ -13354,10 +13011,10 @@
     </row>
     <row r="167">
       <c r="A167" s="2" t="n">
-        <v>45515.99999999999</v>
+        <v>45536.99999999999</v>
       </c>
       <c r="B167" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C167" t="n">
         <v>0</v>
@@ -13365,7 +13022,7 @@
     </row>
     <row r="168">
       <c r="A168" s="2" t="n">
-        <v>45522.99999999999</v>
+        <v>45543.99999999999</v>
       </c>
       <c r="B168" t="n">
         <v>0</v>
@@ -13376,10 +13033,10 @@
     </row>
     <row r="169">
       <c r="A169" s="2" t="n">
-        <v>45529.99999999999</v>
+        <v>45550.99999999999</v>
       </c>
       <c r="B169" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C169" t="n">
         <v>0</v>
@@ -13387,7 +13044,7 @@
     </row>
     <row r="170">
       <c r="A170" s="2" t="n">
-        <v>45536.99999999999</v>
+        <v>45557.99999999999</v>
       </c>
       <c r="B170" t="n">
         <v>0</v>
@@ -13398,7 +13055,7 @@
     </row>
     <row r="171">
       <c r="A171" s="2" t="n">
-        <v>45543.99999999999</v>
+        <v>45564.99999999999</v>
       </c>
       <c r="B171" t="n">
         <v>0</v>
@@ -13409,7 +13066,7 @@
     </row>
     <row r="172">
       <c r="A172" s="2" t="n">
-        <v>45550.99999999999</v>
+        <v>45571.99999999999</v>
       </c>
       <c r="B172" t="n">
         <v>0</v>
@@ -13420,7 +13077,7 @@
     </row>
     <row r="173">
       <c r="A173" s="2" t="n">
-        <v>45557.99999999999</v>
+        <v>45578.99999999999</v>
       </c>
       <c r="B173" t="n">
         <v>0</v>
@@ -13431,7 +13088,7 @@
     </row>
     <row r="174">
       <c r="A174" s="2" t="n">
-        <v>45564.99999999999</v>
+        <v>45585.99999999999</v>
       </c>
       <c r="B174" t="n">
         <v>0</v>
@@ -13442,7 +13099,7 @@
     </row>
     <row r="175">
       <c r="A175" s="2" t="n">
-        <v>45571.99999999999</v>
+        <v>45592.99999999999</v>
       </c>
       <c r="B175" t="n">
         <v>0</v>
@@ -13453,7 +13110,7 @@
     </row>
     <row r="176">
       <c r="A176" s="2" t="n">
-        <v>45578.99999999999</v>
+        <v>45599.99999999999</v>
       </c>
       <c r="B176" t="n">
         <v>0</v>
@@ -13464,7 +13121,7 @@
     </row>
     <row r="177">
       <c r="A177" s="2" t="n">
-        <v>45585.99999999999</v>
+        <v>45606.99999999999</v>
       </c>
       <c r="B177" t="n">
         <v>0</v>
@@ -13475,7 +13132,7 @@
     </row>
     <row r="178">
       <c r="A178" s="2" t="n">
-        <v>45592.99999999999</v>
+        <v>45613.99999999999</v>
       </c>
       <c r="B178" t="n">
         <v>0</v>
@@ -13486,7 +13143,7 @@
     </row>
     <row r="179">
       <c r="A179" s="2" t="n">
-        <v>45599.99999999999</v>
+        <v>45620.99999999999</v>
       </c>
       <c r="B179" t="n">
         <v>0</v>
@@ -13497,7 +13154,7 @@
     </row>
     <row r="180">
       <c r="A180" s="2" t="n">
-        <v>45606.99999999999</v>
+        <v>45627.99999999999</v>
       </c>
       <c r="B180" t="n">
         <v>0</v>
@@ -13508,7 +13165,7 @@
     </row>
     <row r="181">
       <c r="A181" s="2" t="n">
-        <v>45613.99999999999</v>
+        <v>45634.99999999999</v>
       </c>
       <c r="B181" t="n">
         <v>0</v>
@@ -13519,7 +13176,7 @@
     </row>
     <row r="182">
       <c r="A182" s="2" t="n">
-        <v>45620.99999999999</v>
+        <v>45641.99999999999</v>
       </c>
       <c r="B182" t="n">
         <v>0</v>
@@ -13530,7 +13187,7 @@
     </row>
     <row r="183">
       <c r="A183" s="2" t="n">
-        <v>45627.99999999999</v>
+        <v>45648.99999999999</v>
       </c>
       <c r="B183" t="n">
         <v>0</v>
@@ -13541,7 +13198,7 @@
     </row>
     <row r="184">
       <c r="A184" s="2" t="n">
-        <v>45634.99999999999</v>
+        <v>45655.99999999999</v>
       </c>
       <c r="B184" t="n">
         <v>0</v>
@@ -13552,34 +13209,12 @@
     </row>
     <row r="185">
       <c r="A185" s="2" t="n">
-        <v>45641.99999999999</v>
+        <v>45662.99999999999</v>
       </c>
       <c r="B185" t="n">
         <v>0</v>
       </c>
       <c r="C185" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" s="2" t="n">
-        <v>45648.99999999999</v>
-      </c>
-      <c r="B186" t="n">
-        <v>0</v>
-      </c>
-      <c r="C186" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" s="2" t="n">
-        <v>45655.99999999999</v>
-      </c>
-      <c r="B187" t="n">
-        <v>0</v>
-      </c>
-      <c r="C187" t="n">
         <v>0</v>
       </c>
     </row>
@@ -13626,10 +13261,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>3120</v>
+        <v>3090</v>
       </c>
       <c r="B2" t="n">
-        <v>36.27906976744186</v>
+        <v>37.2289156626506</v>
       </c>
       <c r="C2" t="n">
         <v>460</v>
@@ -13666,7 +13301,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>47.74555403556772</v>
+        <v>52.47134880987363</v>
       </c>
     </row>
   </sheetData>

--- a/po forecast comparison/B08BR1XDX5_sales_po_comparison.xlsx
+++ b/po forecast comparison/B08BR1XDX5_sales_po_comparison.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B102"/>
+  <dimension ref="A1:B103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1258,6 +1258,14 @@
         <v>45662.99999999999</v>
       </c>
       <c r="B102" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>45669.99999999999</v>
+      </c>
+      <c r="B103" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11169,7 +11177,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C185"/>
+  <dimension ref="A1:C186"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12192,7 +12200,7 @@
         <v>0</v>
       </c>
       <c r="C92" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="93">
@@ -12203,7 +12211,7 @@
         <v>0</v>
       </c>
       <c r="C93" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="94">
@@ -13215,6 +13223,17 @@
         <v>0</v>
       </c>
       <c r="C185" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="2" t="n">
+        <v>45669.99999999999</v>
+      </c>
+      <c r="B186" t="n">
+        <v>0</v>
+      </c>
+      <c r="C186" t="n">
         <v>0</v>
       </c>
     </row>

--- a/po forecast comparison/B08BR1XDX5_sales_po_comparison.xlsx
+++ b/po forecast comparison/B08BR1XDX5_sales_po_comparison.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B103"/>
+  <dimension ref="A1:B104"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1266,6 +1266,14 @@
         <v>45669.99999999999</v>
       </c>
       <c r="B103" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>45676.99999999999</v>
+      </c>
+      <c r="B104" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11177,7 +11185,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C186"/>
+  <dimension ref="A1:C187"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13234,6 +13242,17 @@
         <v>0</v>
       </c>
       <c r="C186" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="2" t="n">
+        <v>45676.99999999999</v>
+      </c>
+      <c r="B187" t="n">
+        <v>0</v>
+      </c>
+      <c r="C187" t="n">
         <v>0</v>
       </c>
     </row>
